--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C12911-E9A5-44DF-8E3A-F2C24582D004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B232D3-0C47-4090-9A6E-3CBCD8611B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
-      <c r="A11">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2038,8 +2038,8 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
+      <c r="D11" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B232D3-0C47-4090-9A6E-3CBCD8611B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFD9BA-6CE9-4898-90DB-82BD6F25E792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
-      <c r="A12">
+      <c r="A12" s="12">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2052,8 +2052,8 @@
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
+      <c r="D12" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFD9BA-6CE9-4898-90DB-82BD6F25E792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187775F-FCD1-4F29-BD4E-1953EB00AE0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
-      <c r="A13">
+      <c r="A13" s="12">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2066,8 +2066,8 @@
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
+      <c r="D13" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187775F-FCD1-4F29-BD4E-1953EB00AE0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC393001-DB6F-4FD3-9ED9-20184ADB0498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
-      <c r="A14">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2080,8 +2080,8 @@
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
+      <c r="D14" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC393001-DB6F-4FD3-9ED9-20184ADB0498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7D3EB3-9A7F-4CDB-BB5C-202C26BFF86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7D3EB3-9A7F-4CDB-BB5C-202C26BFF86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13208255-577A-4629-8FD5-4BED7FFE0178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1590,6 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1912,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1924,7 +1925,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>466</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1932,14 +1933,14 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15"/>
+      <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
         <v>464</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2071,7 +2072,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
-      <c r="A14" s="12">
+      <c r="A14" s="15">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2085,7 +2086,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
-      <c r="A15">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2094,8 +2095,8 @@
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
+      <c r="D15" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13208255-577A-4629-8FD5-4BED7FFE0178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30005CB9-6A91-47BE-93D6-C48188A3CC56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Minimum no. of Jumps to reach end of an array</t>
   </si>
   <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
     <t>Merge 2 sorted arrays without using Extra space.</t>
   </si>
   <si>
@@ -1426,6 +1423,9 @@
   </si>
   <si>
     <t>Sl No</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers (New Algo  Learnt : Floyd's Algo)</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1926,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="A1" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -1970,7 +1970,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -1998,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2012,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2040,7 +2040,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2054,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2068,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2082,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2096,21 +2096,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
-      <c r="A16">
+      <c r="A16" s="12">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>4</v>
+        <v>466</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2121,7 +2121,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>4</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>4</v>
@@ -2149,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>4</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>4</v>
@@ -2177,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>4</v>
@@ -2191,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>4</v>
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>4</v>
@@ -2219,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>4</v>
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>4</v>
@@ -2247,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>4</v>
@@ -2261,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>4</v>
@@ -2275,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>4</v>
@@ -2289,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>4</v>
@@ -2303,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>4</v>
@@ -2317,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>4</v>
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>4</v>
@@ -2345,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>4</v>
@@ -2359,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>4</v>
@@ -2373,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>4</v>
@@ -2387,7 +2387,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>4</v>
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>4</v>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>4</v>
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>4</v>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>4</v>
@@ -2457,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>4</v>
@@ -2481,10 +2481,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>4</v>
@@ -2495,10 +2495,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>4</v>
@@ -2509,10 +2509,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>4</v>
@@ -2523,10 +2523,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>4</v>
@@ -2537,10 +2537,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>4</v>
@@ -2551,10 +2551,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>4</v>
@@ -2565,10 +2565,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>4</v>
@@ -2579,10 +2579,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>4</v>
@@ -2593,10 +2593,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>4</v>
@@ -2607,10 +2607,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>4</v>
@@ -2626,10 +2626,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>4</v>
@@ -2640,10 +2640,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>4</v>
@@ -2654,10 +2654,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>4</v>
@@ -2668,10 +2668,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>4</v>
@@ -2682,10 +2682,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>4</v>
@@ -2696,10 +2696,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>4</v>
@@ -2710,10 +2710,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>4</v>
@@ -2724,10 +2724,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>4</v>
@@ -2738,10 +2738,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>4</v>
@@ -2752,10 +2752,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>4</v>
@@ -2766,10 +2766,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>4</v>
@@ -2780,10 +2780,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>4</v>
@@ -2794,10 +2794,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2808,10 +2808,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>4</v>
@@ -2822,10 +2822,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -2836,10 +2836,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>4</v>
@@ -2850,10 +2850,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>4</v>
@@ -2864,10 +2864,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>4</v>
@@ -2878,10 +2878,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>4</v>
@@ -2892,10 +2892,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>4</v>
@@ -2906,10 +2906,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>4</v>
@@ -2920,10 +2920,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>4</v>
@@ -2934,10 +2934,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>4</v>
@@ -2948,10 +2948,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>4</v>
@@ -2962,10 +2962,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
@@ -2976,10 +2976,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>4</v>
@@ -2990,10 +2990,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>4</v>
@@ -3004,10 +3004,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>4</v>
@@ -3032,10 +3032,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -3046,10 +3046,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>4</v>
@@ -3060,10 +3060,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
@@ -3074,10 +3074,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>4</v>
@@ -3088,10 +3088,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3102,10 +3102,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3116,10 +3116,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3130,10 +3130,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3144,10 +3144,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3158,10 +3158,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3172,10 +3172,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3186,10 +3186,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3200,10 +3200,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3214,10 +3214,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3233,10 +3233,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3247,10 +3247,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3261,10 +3261,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3275,10 +3275,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3289,10 +3289,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3303,10 +3303,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3317,10 +3317,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3331,10 +3331,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3345,10 +3345,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3359,10 +3359,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3373,10 +3373,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3387,10 +3387,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3401,10 +3401,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3415,10 +3415,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3429,10 +3429,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3443,10 +3443,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3457,10 +3457,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3471,10 +3471,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3485,10 +3485,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3499,10 +3499,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3513,10 +3513,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3527,10 +3527,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3541,10 +3541,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3555,10 +3555,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3569,10 +3569,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3583,10 +3583,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3597,10 +3597,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3611,10 +3611,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3625,10 +3625,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3639,10 +3639,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3653,10 +3653,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3667,10 +3667,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3681,10 +3681,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3695,10 +3695,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3709,10 +3709,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3723,10 +3723,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3741,10 +3741,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3755,10 +3755,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3769,10 +3769,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3783,10 +3783,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3797,10 +3797,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3811,10 +3811,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3825,10 +3825,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3839,10 +3839,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3853,10 +3853,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3867,10 +3867,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3881,10 +3881,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3895,10 +3895,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3909,10 +3909,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3923,10 +3923,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3937,10 +3937,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3951,10 +3951,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3965,10 +3965,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3979,10 +3979,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -3993,10 +3993,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4007,10 +4007,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4021,10 +4021,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4035,10 +4035,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4049,10 +4049,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4063,10 +4063,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4077,10 +4077,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4091,10 +4091,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4105,10 +4105,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4119,10 +4119,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4133,10 +4133,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4147,10 +4147,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4161,10 +4161,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4175,10 +4175,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4189,10 +4189,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4203,10 +4203,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4217,10 +4217,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4231,10 +4231,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4249,10 +4249,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4263,10 +4263,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4277,10 +4277,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4291,10 +4291,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4305,10 +4305,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4319,10 +4319,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4333,10 +4333,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4347,10 +4347,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4361,10 +4361,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4375,10 +4375,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4389,10 +4389,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4403,10 +4403,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4417,10 +4417,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4431,10 +4431,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4445,10 +4445,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4459,10 +4459,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4473,10 +4473,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4487,10 +4487,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4501,10 +4501,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4515,10 +4515,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4529,10 +4529,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4543,10 +4543,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4557,10 +4557,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4571,10 +4571,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4585,10 +4585,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4599,10 +4599,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4613,10 +4613,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4627,10 +4627,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4641,10 +4641,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4655,10 +4655,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4669,10 +4669,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4683,10 +4683,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4697,10 +4697,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4711,10 +4711,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4725,10 +4725,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4749,10 +4749,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4763,10 +4763,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4777,10 +4777,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4791,10 +4791,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4805,10 +4805,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4819,10 +4819,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4833,10 +4833,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4847,10 +4847,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4861,10 +4861,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4875,10 +4875,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4889,10 +4889,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4903,10 +4903,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4917,10 +4917,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4931,10 +4931,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4945,10 +4945,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4959,10 +4959,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4973,10 +4973,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -4987,10 +4987,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5001,10 +5001,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5015,10 +5015,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5029,10 +5029,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5043,10 +5043,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5065,10 +5065,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5079,10 +5079,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5093,10 +5093,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5107,10 +5107,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5121,10 +5121,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5135,10 +5135,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5149,10 +5149,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5163,10 +5163,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5177,10 +5177,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5191,10 +5191,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5205,10 +5205,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5219,10 +5219,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5233,10 +5233,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5247,10 +5247,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5261,10 +5261,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5275,10 +5275,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5289,10 +5289,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5303,10 +5303,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5317,10 +5317,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5331,10 +5331,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5345,10 +5345,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5359,10 +5359,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5373,10 +5373,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5387,10 +5387,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5401,10 +5401,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5415,10 +5415,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5429,10 +5429,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5443,10 +5443,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5457,10 +5457,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5471,10 +5471,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5485,10 +5485,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5499,10 +5499,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5513,10 +5513,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5527,10 +5527,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5541,10 +5541,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5563,10 +5563,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5577,10 +5577,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5591,10 +5591,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5605,10 +5605,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5619,10 +5619,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5633,10 +5633,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5647,10 +5647,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5661,10 +5661,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5675,10 +5675,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5689,10 +5689,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5703,10 +5703,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5717,10 +5717,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5731,10 +5731,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5745,10 +5745,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5759,10 +5759,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5773,10 +5773,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5787,10 +5787,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5801,10 +5801,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5815,10 +5815,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5837,10 +5837,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5851,10 +5851,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5865,10 +5865,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5879,10 +5879,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5893,10 +5893,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5907,10 +5907,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5921,10 +5921,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5935,10 +5935,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5949,10 +5949,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5963,10 +5963,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5977,10 +5977,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -5991,10 +5991,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6005,10 +6005,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6019,10 +6019,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6033,10 +6033,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6047,10 +6047,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6061,10 +6061,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6075,10 +6075,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6089,10 +6089,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6103,10 +6103,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6117,10 +6117,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6131,10 +6131,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6145,10 +6145,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6159,10 +6159,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6173,10 +6173,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6187,10 +6187,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6201,10 +6201,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6215,10 +6215,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6229,10 +6229,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6243,10 +6243,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6257,10 +6257,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6271,10 +6271,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6285,10 +6285,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6299,10 +6299,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6313,10 +6313,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6327,10 +6327,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6341,10 +6341,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6355,10 +6355,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6377,10 +6377,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6391,10 +6391,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6405,10 +6405,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6419,10 +6419,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6433,10 +6433,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6447,10 +6447,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6461,10 +6461,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6475,10 +6475,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6489,10 +6489,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6503,10 +6503,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6517,10 +6517,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6531,10 +6531,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6545,10 +6545,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6559,10 +6559,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6573,10 +6573,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6587,10 +6587,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6601,10 +6601,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6615,10 +6615,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6637,10 +6637,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6651,10 +6651,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6665,10 +6665,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6679,10 +6679,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6693,10 +6693,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6707,10 +6707,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6721,10 +6721,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6735,10 +6735,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6749,10 +6749,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6763,10 +6763,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6777,10 +6777,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6791,10 +6791,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6805,10 +6805,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6819,10 +6819,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6833,10 +6833,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6847,10 +6847,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6861,10 +6861,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6875,10 +6875,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6889,10 +6889,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6903,10 +6903,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6917,10 +6917,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6931,10 +6931,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6945,10 +6945,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6959,10 +6959,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6973,10 +6973,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -6987,10 +6987,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7001,10 +7001,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7015,10 +7015,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7029,10 +7029,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7043,10 +7043,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7057,10 +7057,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7071,10 +7071,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7085,10 +7085,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7099,10 +7099,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7113,10 +7113,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7127,10 +7127,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7141,10 +7141,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7155,10 +7155,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7169,10 +7169,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7183,10 +7183,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7197,10 +7197,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7211,10 +7211,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7225,10 +7225,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7239,10 +7239,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7261,10 +7261,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7275,10 +7275,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7289,10 +7289,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7303,10 +7303,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7317,10 +7317,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7331,10 +7331,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7353,10 +7353,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7367,10 +7367,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7381,10 +7381,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7395,10 +7395,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7409,10 +7409,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7423,10 +7423,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7437,10 +7437,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7451,10 +7451,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7465,10 +7465,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7479,10 +7479,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7493,10 +7493,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7507,10 +7507,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7521,10 +7521,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7535,10 +7535,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7549,10 +7549,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7563,10 +7563,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7577,10 +7577,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7591,10 +7591,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7605,10 +7605,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7619,10 +7619,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7633,10 +7633,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7647,10 +7647,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7661,10 +7661,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7675,10 +7675,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7689,10 +7689,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7703,10 +7703,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7717,10 +7717,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7731,10 +7731,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7745,10 +7745,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7759,10 +7759,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7773,10 +7773,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7787,10 +7787,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7801,10 +7801,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7815,10 +7815,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7829,10 +7829,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7843,10 +7843,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7857,10 +7857,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7871,10 +7871,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7885,10 +7885,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7899,10 +7899,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7913,10 +7913,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7927,10 +7927,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7941,10 +7941,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7955,10 +7955,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7969,10 +7969,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -7983,10 +7983,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -7997,10 +7997,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8011,10 +8011,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8025,10 +8025,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8039,10 +8039,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8053,10 +8053,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8067,10 +8067,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8081,10 +8081,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8095,10 +8095,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8109,10 +8109,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8123,10 +8123,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8137,10 +8137,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8151,10 +8151,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8165,10 +8165,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8179,10 +8179,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8202,10 +8202,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8216,10 +8216,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8230,10 +8230,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8244,10 +8244,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8258,10 +8258,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8272,10 +8272,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8286,10 +8286,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8300,10 +8300,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8314,10 +8314,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8328,10 +8328,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8352,7 +8352,7 @@
     <hyperlink ref="C13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
     <hyperlink ref="C14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
     <hyperlink ref="C15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="C16" r:id="rId11" display="find duplicate in an array of N+1 Integers" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
     <hyperlink ref="C17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
     <hyperlink ref="C19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30005CB9-6A91-47BE-93D6-C48188A3CC56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC50E0-28CE-4D98-9A31-50E1692F12FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1913,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FC50E0-28CE-4D98-9A31-50E1692F12FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00C4C8-E8BF-4307-BE22-D49BB7951651}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2114,7 +2114,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
-      <c r="A17">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2123,12 +2123,12 @@
       <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>4</v>
+      <c r="D17" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
-      <c r="A18">
+      <c r="A18" s="12">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2137,12 +2137,12 @@
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>4</v>
+      <c r="D18" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
-      <c r="A19">
+      <c r="A19" s="12">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2151,8 +2151,8 @@
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>4</v>
+      <c r="D19" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F00C4C8-E8BF-4307-BE22-D49BB7951651}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F307E-34E5-441E-AC22-A645DA793A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>find duplicate in an array of N+1 Integers (New Algo  Learnt : Floyd's Algo)</t>
+  </si>
+  <si>
+    <t>Yellow Means new concept learned and needs to be revised</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1955,6 +1958,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="B5" s="15"/>
+      <c r="C5" t="s">
+        <v>467</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2163,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
-      <c r="A20">
+      <c r="A20" s="15">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2165,8 +2172,8 @@
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>4</v>
+      <c r="D20" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F307E-34E5-441E-AC22-A645DA793A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DDFD3B-F970-4D5C-AD7E-4A0D8668503F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
-      <c r="A21">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2186,8 +2186,8 @@
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>4</v>
+      <c r="D21" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DDFD3B-F970-4D5C-AD7E-4A0D8668503F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE6207-C3A6-4DF5-A656-B5B1E3541F96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE6207-C3A6-4DF5-A656-B5B1E3541F96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112578BC-6621-4F0A-9A84-881B69F62DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1925,6 +1925,7 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
@@ -2191,7 +2192,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
-      <c r="A22">
+      <c r="A22" s="12">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2200,12 +2201,12 @@
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>4</v>
+      <c r="D22" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
-      <c r="A23">
+      <c r="A23" s="12">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2214,8 +2215,8 @@
       <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>4</v>
+      <c r="D23" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112578BC-6621-4F0A-9A84-881B69F62DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB49D2B-7546-47EC-ADD2-A4FD2B706036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
-      <c r="A24">
+      <c r="A24" s="12">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2229,8 +2229,8 @@
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>4</v>
+      <c r="D24" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB49D2B-7546-47EC-ADD2-A4FD2B706036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818C13B-CAFE-41B3-85D0-31130346CAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E27" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
-      <c r="A25">
+      <c r="A25" s="12">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2243,8 +2243,8 @@
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>4</v>
+      <c r="D25" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818C13B-CAFE-41B3-85D0-31130346CAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF1370-CF95-4D10-A2F5-0BFDD5485EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E26:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2248,7 +2248,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2257,8 +2257,8 @@
       <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>4</v>
+      <c r="D26" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF1370-CF95-4D10-A2F5-0BFDD5485EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D2BC9-5BC3-44F3-BDF9-B2DD3068147C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2262,7 +2262,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
-      <c r="A27">
+      <c r="A27" s="12">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2271,8 +2271,8 @@
       <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>4</v>
+      <c r="D27" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D2BC9-5BC3-44F3-BDF9-B2DD3068147C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061699B-3122-4706-8F9D-4BB0C7168754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2276,7 +2276,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
-      <c r="A28">
+      <c r="A28" s="15">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2285,8 +2285,8 @@
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>4</v>
+      <c r="D28" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061699B-3122-4706-8F9D-4BB0C7168754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E2F935-370D-4A75-9472-ACBEA5E96518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
-      <c r="A29">
+      <c r="A29" s="12">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2299,12 +2299,12 @@
       <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>4</v>
+      <c r="D29" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
-      <c r="A30">
+      <c r="A30" s="15">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2313,8 +2313,8 @@
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>4</v>
+      <c r="D30" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E2F935-370D-4A75-9472-ACBEA5E96518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08BC41-DCF9-47A5-B4E3-693B75F240FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,12 +1916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="9" customWidth="1"/>
@@ -2318,7 +2319,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
-      <c r="A31">
+      <c r="A31" s="15">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2327,8 +2328,8 @@
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>4</v>
+      <c r="D31" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08BC41-DCF9-47A5-B4E3-693B75F240FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EA9D3-2D09-4A63-AB4D-0F7D49A21B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2333,7 +2333,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
-      <c r="A32">
+      <c r="A32" s="12">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2342,8 +2342,8 @@
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>4</v>
+      <c r="D32" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61EA9D3-2D09-4A63-AB4D-0F7D49A21B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECD7E3-43AB-4C2A-9519-6EE08529CD1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2347,7 +2347,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
-      <c r="A33">
+      <c r="A33" s="12">
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2356,8 +2356,8 @@
       <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>4</v>
+      <c r="D33" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECD7E3-43AB-4C2A-9519-6EE08529CD1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB490858-E1EC-4FE4-BD64-000021D52E23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1595,7 +1595,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1949,6 +1949,7 @@
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2361,7 +2362,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
-      <c r="A34">
+      <c r="A34" s="15">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2370,8 +2371,8 @@
       <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>4</v>
+      <c r="D34" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -8348,7 +8349,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB490858-E1EC-4FE4-BD64-000021D52E23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CB571-406F-4D4B-8AF8-4C08A5B59EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
-      <c r="A35">
+      <c r="A35" s="12">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2385,8 +2385,8 @@
       <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>4</v>
+      <c r="D35" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CB571-406F-4D4B-8AF8-4C08A5B59EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9730D6-46CD-4312-8BA6-36C65E25E362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2390,7 +2390,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
-      <c r="A36">
+      <c r="A36" s="12">
         <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2399,8 +2399,8 @@
       <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>4</v>
+      <c r="D36" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9730D6-46CD-4312-8BA6-36C65E25E362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EB73D-611F-45A6-AA5E-4F9F63C83A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
-      <c r="A37">
+      <c r="A37" s="12">
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2413,8 +2413,8 @@
       <c r="C37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>4</v>
+      <c r="D37" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EB73D-611F-45A6-AA5E-4F9F63C83A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819162D-F836-4B96-9D06-C61D9C066527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2427,12 +2427,12 @@
       <c r="C38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>4</v>
+      <c r="D38" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
-      <c r="A39">
+      <c r="A39" s="12">
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2441,8 +2441,8 @@
       <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>4</v>
+      <c r="D39" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819162D-F836-4B96-9D06-C61D9C066527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52495140-11D6-4644-90EC-D168273B8EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Median of 2 sorted arrays of equal size</t>
   </si>
   <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
     <t>Matrix</t>
   </si>
   <si>
@@ -1429,6 +1426,9 @@
   </si>
   <si>
     <t>Yellow Means new concept learned and needs to be revised</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size   Excellent Question…. Must Read</t>
   </si>
 </sst>
 </file>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1931,7 +1931,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="A1" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -1963,7 +1963,7 @@
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
@@ -1980,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2008,7 +2008,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2022,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2050,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2064,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2078,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2106,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2134,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2148,7 +2148,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2162,7 +2162,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2176,7 +2176,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2190,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2204,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2218,7 +2218,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2232,7 +2232,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2246,7 +2246,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2260,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2274,7 +2274,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2288,7 +2288,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2302,7 +2302,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2316,7 +2316,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2330,7 +2330,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2344,7 +2344,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2358,7 +2358,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2372,7 +2372,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2386,7 +2386,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2400,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2414,7 +2414,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2428,7 +2428,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2442,11 +2442,11 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
-      <c r="A40">
+      <c r="A40" s="12">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2455,19 +2455,19 @@
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>4</v>
+      <c r="D40" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
-      <c r="A41">
+      <c r="A41" s="15">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>40</v>
+        <v>467</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>4</v>
@@ -2491,10 +2491,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>4</v>
@@ -2505,10 +2505,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>4</v>
@@ -2519,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>4</v>
@@ -2533,10 +2533,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>4</v>
@@ -2547,10 +2547,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>4</v>
@@ -2561,10 +2561,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>4</v>
@@ -2575,10 +2575,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>4</v>
@@ -2589,10 +2589,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>4</v>
@@ -2603,10 +2603,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>4</v>
@@ -2617,10 +2617,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>4</v>
@@ -2636,10 +2636,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>4</v>
@@ -2650,10 +2650,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>4</v>
@@ -2664,10 +2664,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>4</v>
@@ -2678,10 +2678,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>4</v>
@@ -2692,10 +2692,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>4</v>
@@ -2706,10 +2706,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>4</v>
@@ -2720,10 +2720,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>4</v>
@@ -2734,10 +2734,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>4</v>
@@ -2748,10 +2748,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>4</v>
@@ -2762,10 +2762,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>4</v>
@@ -2776,10 +2776,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>4</v>
@@ -2790,10 +2790,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>4</v>
@@ -2804,10 +2804,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2818,10 +2818,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>4</v>
@@ -2832,10 +2832,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -2846,10 +2846,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>4</v>
@@ -2860,10 +2860,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>4</v>
@@ -2874,10 +2874,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>4</v>
@@ -2888,10 +2888,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>4</v>
@@ -2902,10 +2902,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>4</v>
@@ -2916,10 +2916,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>4</v>
@@ -2930,10 +2930,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>4</v>
@@ -2944,10 +2944,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>4</v>
@@ -2958,10 +2958,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>4</v>
@@ -2972,10 +2972,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
@@ -2986,10 +2986,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>4</v>
@@ -3000,10 +3000,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>4</v>
@@ -3014,10 +3014,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>4</v>
@@ -3028,10 +3028,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>4</v>
@@ -3042,10 +3042,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -3056,10 +3056,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>4</v>
@@ -3070,10 +3070,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
@@ -3084,10 +3084,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>4</v>
@@ -3098,10 +3098,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3112,10 +3112,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3126,10 +3126,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3140,10 +3140,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3154,10 +3154,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3168,10 +3168,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3182,10 +3182,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3196,10 +3196,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3210,10 +3210,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3224,10 +3224,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3243,10 +3243,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3257,10 +3257,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3271,10 +3271,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3285,10 +3285,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3299,10 +3299,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3313,10 +3313,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3327,10 +3327,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3341,10 +3341,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3355,10 +3355,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3369,10 +3369,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3383,10 +3383,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3397,10 +3397,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3411,10 +3411,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3425,10 +3425,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3439,10 +3439,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3453,10 +3453,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3467,10 +3467,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3481,10 +3481,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3495,10 +3495,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3509,10 +3509,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3523,10 +3523,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3537,10 +3537,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3551,10 +3551,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3565,10 +3565,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3579,10 +3579,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3593,10 +3593,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3607,10 +3607,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3621,10 +3621,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3635,10 +3635,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3649,10 +3649,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3663,10 +3663,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3677,10 +3677,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3691,10 +3691,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3705,10 +3705,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3719,10 +3719,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3733,10 +3733,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3751,10 +3751,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3765,10 +3765,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3779,10 +3779,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3793,10 +3793,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3807,10 +3807,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3821,10 +3821,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3835,10 +3835,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3849,10 +3849,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3863,10 +3863,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3877,10 +3877,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3891,10 +3891,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3905,10 +3905,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3919,10 +3919,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3933,10 +3933,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3947,10 +3947,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3961,10 +3961,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3975,10 +3975,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3989,10 +3989,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4003,10 +4003,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4017,10 +4017,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4031,10 +4031,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4045,10 +4045,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4059,10 +4059,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4073,10 +4073,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4087,10 +4087,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4101,10 +4101,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4115,10 +4115,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4129,10 +4129,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4143,10 +4143,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4157,10 +4157,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4171,10 +4171,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4185,10 +4185,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4199,10 +4199,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4213,10 +4213,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4227,10 +4227,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4241,10 +4241,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4259,10 +4259,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4273,10 +4273,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4287,10 +4287,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4301,10 +4301,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4315,10 +4315,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4329,10 +4329,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4343,10 +4343,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4357,10 +4357,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4371,10 +4371,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4385,10 +4385,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4399,10 +4399,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4413,10 +4413,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4427,10 +4427,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4441,10 +4441,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4455,10 +4455,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4469,10 +4469,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4483,10 +4483,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4497,10 +4497,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4511,10 +4511,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4525,10 +4525,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4539,10 +4539,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4553,10 +4553,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4567,10 +4567,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4581,10 +4581,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4595,10 +4595,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4609,10 +4609,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4623,10 +4623,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4637,10 +4637,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4651,10 +4651,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4665,10 +4665,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4679,10 +4679,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4693,10 +4693,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4707,10 +4707,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4721,10 +4721,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4735,10 +4735,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4759,10 +4759,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4773,10 +4773,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4787,10 +4787,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4801,10 +4801,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4815,10 +4815,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4829,10 +4829,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4843,10 +4843,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4857,10 +4857,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4871,10 +4871,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4885,10 +4885,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4899,10 +4899,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4913,10 +4913,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4927,10 +4927,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4941,10 +4941,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4955,10 +4955,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4969,10 +4969,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4983,10 +4983,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -4997,10 +4997,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5011,10 +5011,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5025,10 +5025,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5039,10 +5039,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5053,10 +5053,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5075,10 +5075,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5089,10 +5089,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5103,10 +5103,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5117,10 +5117,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5131,10 +5131,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5145,10 +5145,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5159,10 +5159,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5173,10 +5173,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5187,10 +5187,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5201,10 +5201,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5215,10 +5215,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5229,10 +5229,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5243,10 +5243,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5257,10 +5257,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5271,10 +5271,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5285,10 +5285,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5299,10 +5299,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5313,10 +5313,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5327,10 +5327,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5341,10 +5341,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5355,10 +5355,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5369,10 +5369,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5383,10 +5383,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5397,10 +5397,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5411,10 +5411,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5425,10 +5425,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5439,10 +5439,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5453,10 +5453,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5467,10 +5467,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5481,10 +5481,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5495,10 +5495,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5509,10 +5509,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5523,10 +5523,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5537,10 +5537,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5551,10 +5551,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5573,10 +5573,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5587,10 +5587,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5601,10 +5601,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5615,10 +5615,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5629,10 +5629,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5643,10 +5643,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5657,10 +5657,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5671,10 +5671,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5685,10 +5685,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5699,10 +5699,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5713,10 +5713,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5727,10 +5727,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5741,10 +5741,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5755,10 +5755,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5769,10 +5769,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5783,10 +5783,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5797,10 +5797,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5811,10 +5811,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5825,10 +5825,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5847,10 +5847,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5861,10 +5861,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5875,10 +5875,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5889,10 +5889,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5903,10 +5903,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5917,10 +5917,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5931,10 +5931,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5945,10 +5945,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5959,10 +5959,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5973,10 +5973,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5987,10 +5987,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6001,10 +6001,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6015,10 +6015,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6029,10 +6029,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6043,10 +6043,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6057,10 +6057,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6071,10 +6071,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6085,10 +6085,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6099,10 +6099,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6113,10 +6113,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6127,10 +6127,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6141,10 +6141,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6155,10 +6155,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6169,10 +6169,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6183,10 +6183,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6197,10 +6197,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6211,10 +6211,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6225,10 +6225,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6239,10 +6239,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6253,10 +6253,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6267,10 +6267,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6281,10 +6281,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6295,10 +6295,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6309,10 +6309,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6323,10 +6323,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6337,10 +6337,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6351,10 +6351,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6365,10 +6365,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6387,10 +6387,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6401,10 +6401,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6415,10 +6415,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6429,10 +6429,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6443,10 +6443,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6457,10 +6457,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6471,10 +6471,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6485,10 +6485,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6499,10 +6499,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6513,10 +6513,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6527,10 +6527,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6541,10 +6541,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6555,10 +6555,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6569,10 +6569,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6583,10 +6583,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6597,10 +6597,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6611,10 +6611,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6625,10 +6625,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6647,10 +6647,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6661,10 +6661,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6675,10 +6675,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6689,10 +6689,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6703,10 +6703,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6717,10 +6717,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6731,10 +6731,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6745,10 +6745,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6759,10 +6759,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6773,10 +6773,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6787,10 +6787,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6801,10 +6801,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6815,10 +6815,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6829,10 +6829,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6843,10 +6843,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6857,10 +6857,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6871,10 +6871,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6885,10 +6885,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6899,10 +6899,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6913,10 +6913,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6927,10 +6927,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6941,10 +6941,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6955,10 +6955,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6969,10 +6969,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6983,10 +6983,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -6997,10 +6997,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7011,10 +7011,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7025,10 +7025,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7039,10 +7039,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7053,10 +7053,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7067,10 +7067,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7081,10 +7081,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7095,10 +7095,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7109,10 +7109,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7123,10 +7123,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7137,10 +7137,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7151,10 +7151,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7165,10 +7165,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7179,10 +7179,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7193,10 +7193,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7207,10 +7207,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7221,10 +7221,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7235,10 +7235,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7249,10 +7249,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7271,10 +7271,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7285,10 +7285,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7299,10 +7299,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7313,10 +7313,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7327,10 +7327,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7341,10 +7341,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7363,10 +7363,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7377,10 +7377,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7391,10 +7391,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7405,10 +7405,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7419,10 +7419,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7433,10 +7433,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7447,10 +7447,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7461,10 +7461,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7475,10 +7475,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7489,10 +7489,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7503,10 +7503,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7517,10 +7517,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7531,10 +7531,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7545,10 +7545,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7559,10 +7559,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7573,10 +7573,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7587,10 +7587,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7601,10 +7601,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7615,10 +7615,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7629,10 +7629,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7643,10 +7643,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7657,10 +7657,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7671,10 +7671,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7685,10 +7685,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7699,10 +7699,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7713,10 +7713,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7727,10 +7727,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7741,10 +7741,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7755,10 +7755,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7769,10 +7769,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7783,10 +7783,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7797,10 +7797,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7811,10 +7811,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7825,10 +7825,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7839,10 +7839,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7853,10 +7853,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7867,10 +7867,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7881,10 +7881,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7895,10 +7895,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7909,10 +7909,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7923,10 +7923,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7937,10 +7937,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7951,10 +7951,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7965,10 +7965,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7979,10 +7979,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -7993,10 +7993,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8007,10 +8007,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8021,10 +8021,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8035,10 +8035,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8049,10 +8049,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8063,10 +8063,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8077,10 +8077,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8091,10 +8091,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8105,10 +8105,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8119,10 +8119,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8133,10 +8133,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8147,10 +8147,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8161,10 +8161,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8175,10 +8175,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8189,10 +8189,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8212,10 +8212,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8226,10 +8226,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8240,10 +8240,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8254,10 +8254,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8268,10 +8268,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8282,10 +8282,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8296,10 +8296,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8310,10 +8310,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8324,10 +8324,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8338,10 +8338,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8387,7 +8387,7 @@
     <hyperlink ref="C38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
     <hyperlink ref="C39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="C40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="C41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
     <hyperlink ref="C44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
     <hyperlink ref="C45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="C46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52495140-11D6-4644-90EC-D168273B8EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF0DAC-97A2-442A-9A38-E26FA817F5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>Median of 2 sorted arrays of different size   Excellent Question…. Must Read</t>
+  </si>
+  <si>
+    <t>Just Read the Stuff. Highly Intuitive. Must Revise</t>
   </si>
 </sst>
 </file>
@@ -1916,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1925,7 +1928,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="123" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.3984375" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2469,25 +2472,21 @@
       <c r="C41" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>4</v>
+      <c r="D41" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
       <c r="C42" s="5"/>
-      <c r="D42" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D42"/>
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D43"/>
     </row>
     <row r="44" spans="1:4" ht="21">
-      <c r="A44">
+      <c r="A44" s="15">
         <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2496,8 +2495,8 @@
       <c r="C44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>4</v>
+      <c r="D44" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF0DAC-97A2-442A-9A38-E26FA817F5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11FEAC2-BFA4-4F3B-821A-C868C376E40E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Spiral traversal on a Matrix</t>
   </si>
   <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
     <t>Find median in a row wise sorted matrix</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t>Just Read the Stuff. Highly Intuitive. Must Revise</t>
+  </si>
+  <si>
+    <t>Search an element in a matrix</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1934,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="A1" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -1966,7 +1966,7 @@
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
@@ -1983,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2011,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2039,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2137,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2165,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2193,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2207,7 +2207,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2221,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2235,7 +2235,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2249,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2263,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2277,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2305,7 +2305,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2333,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2347,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2361,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2375,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2389,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2403,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2417,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2431,7 +2431,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2445,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2459,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2470,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2496,21 +2496,21 @@
         <v>41</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
-      <c r="A45">
+      <c r="A45" s="12">
         <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2521,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>4</v>
@@ -2535,7 +2535,7 @@
         <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>4</v>
@@ -2549,7 +2549,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>4</v>
@@ -2563,7 +2563,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>4</v>
@@ -2577,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>4</v>
@@ -2591,7 +2591,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>4</v>
@@ -2619,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>4</v>
@@ -2635,10 +2635,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>4</v>
@@ -2649,10 +2649,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>4</v>
@@ -2663,10 +2663,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>4</v>
@@ -2677,10 +2677,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>4</v>
@@ -2691,10 +2691,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>4</v>
@@ -2705,10 +2705,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>4</v>
@@ -2719,10 +2719,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>4</v>
@@ -2733,10 +2733,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>4</v>
@@ -2747,10 +2747,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>4</v>
@@ -2761,10 +2761,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>4</v>
@@ -2775,10 +2775,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>4</v>
@@ -2789,10 +2789,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>4</v>
@@ -2803,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2817,10 +2817,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>4</v>
@@ -2831,10 +2831,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -2845,10 +2845,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>4</v>
@@ -2859,10 +2859,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>4</v>
@@ -2873,10 +2873,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>4</v>
@@ -2887,10 +2887,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>4</v>
@@ -2901,10 +2901,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>4</v>
@@ -2915,10 +2915,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>4</v>
@@ -2929,10 +2929,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>4</v>
@@ -2943,10 +2943,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>4</v>
@@ -2957,10 +2957,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>4</v>
@@ -2971,10 +2971,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
@@ -2985,10 +2985,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>4</v>
@@ -2999,10 +2999,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>4</v>
@@ -3013,10 +3013,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>4</v>
@@ -3027,10 +3027,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>4</v>
@@ -3041,10 +3041,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -3055,10 +3055,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>4</v>
@@ -3069,10 +3069,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
@@ -3083,10 +3083,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>4</v>
@@ -3097,10 +3097,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3111,10 +3111,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3125,10 +3125,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3139,10 +3139,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3153,10 +3153,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3167,10 +3167,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3181,10 +3181,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3195,10 +3195,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3209,10 +3209,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3223,10 +3223,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3242,10 +3242,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3256,10 +3256,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3270,10 +3270,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3284,10 +3284,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3298,10 +3298,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3312,10 +3312,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3326,10 +3326,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3340,10 +3340,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3354,10 +3354,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3368,10 +3368,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3382,10 +3382,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3396,10 +3396,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3410,10 +3410,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3424,10 +3424,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3438,10 +3438,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3452,10 +3452,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3466,10 +3466,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3480,10 +3480,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3494,10 +3494,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3508,10 +3508,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3522,10 +3522,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3536,10 +3536,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3550,10 +3550,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3564,10 +3564,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3578,10 +3578,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3592,10 +3592,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3606,10 +3606,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3620,10 +3620,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3634,10 +3634,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3648,10 +3648,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3662,10 +3662,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3676,10 +3676,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3690,10 +3690,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3704,10 +3704,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3718,10 +3718,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3732,10 +3732,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3750,10 +3750,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3764,10 +3764,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3778,10 +3778,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3792,10 +3792,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3806,10 +3806,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3820,10 +3820,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3834,10 +3834,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3848,10 +3848,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3862,10 +3862,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3876,10 +3876,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3890,10 +3890,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3904,10 +3904,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3918,10 +3918,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3932,10 +3932,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3946,10 +3946,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3974,10 +3974,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3988,10 +3988,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4002,10 +4002,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4016,10 +4016,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4030,10 +4030,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4044,10 +4044,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4058,10 +4058,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4072,10 +4072,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4086,10 +4086,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4100,10 +4100,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4114,10 +4114,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4128,10 +4128,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4142,10 +4142,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4156,10 +4156,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4170,10 +4170,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4184,10 +4184,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4198,10 +4198,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4212,10 +4212,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4226,10 +4226,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4240,10 +4240,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4258,10 +4258,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4272,10 +4272,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4286,10 +4286,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4300,10 +4300,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4314,10 +4314,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4328,10 +4328,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4342,10 +4342,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4356,10 +4356,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4370,10 +4370,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4384,10 +4384,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4398,10 +4398,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4412,10 +4412,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4426,10 +4426,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4440,10 +4440,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4454,10 +4454,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4468,10 +4468,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4482,10 +4482,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4496,10 +4496,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4510,10 +4510,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4524,10 +4524,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4538,10 +4538,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4552,10 +4552,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4566,10 +4566,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4580,10 +4580,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4594,10 +4594,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4608,10 +4608,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4622,10 +4622,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4636,10 +4636,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4650,10 +4650,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4664,10 +4664,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4678,10 +4678,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4692,10 +4692,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4706,10 +4706,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4720,10 +4720,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4734,10 +4734,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4758,10 +4758,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4772,10 +4772,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4786,10 +4786,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4800,10 +4800,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4814,10 +4814,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4828,10 +4828,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4842,10 +4842,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4856,10 +4856,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4870,10 +4870,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4884,10 +4884,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4898,10 +4898,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4912,10 +4912,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4926,10 +4926,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4940,10 +4940,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4954,10 +4954,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4968,10 +4968,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4982,10 +4982,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -4996,10 +4996,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5010,10 +5010,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5024,10 +5024,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5038,10 +5038,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5052,10 +5052,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5074,10 +5074,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5088,10 +5088,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5102,10 +5102,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5116,10 +5116,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5130,10 +5130,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5144,10 +5144,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5158,10 +5158,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5172,10 +5172,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5186,10 +5186,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5200,10 +5200,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5214,10 +5214,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5228,10 +5228,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5242,10 +5242,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5256,10 +5256,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5270,10 +5270,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5284,10 +5284,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5298,10 +5298,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5312,10 +5312,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5326,10 +5326,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5340,10 +5340,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5354,10 +5354,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5368,10 +5368,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5382,10 +5382,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5396,10 +5396,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5410,10 +5410,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5424,10 +5424,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5438,10 +5438,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5452,10 +5452,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5466,10 +5466,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5480,10 +5480,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5494,10 +5494,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5508,10 +5508,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5522,10 +5522,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5536,10 +5536,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5550,10 +5550,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5572,10 +5572,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5586,10 +5586,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5600,10 +5600,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5614,10 +5614,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5628,10 +5628,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5642,10 +5642,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5656,10 +5656,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5670,10 +5670,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5684,10 +5684,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5698,10 +5698,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5712,10 +5712,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5726,10 +5726,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5740,10 +5740,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5754,10 +5754,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5768,10 +5768,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5782,10 +5782,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5796,10 +5796,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5810,10 +5810,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5824,10 +5824,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5846,10 +5846,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5860,10 +5860,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5874,10 +5874,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5888,10 +5888,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5902,10 +5902,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5916,10 +5916,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5930,10 +5930,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5944,10 +5944,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5958,10 +5958,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5972,10 +5972,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5986,10 +5986,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6000,10 +6000,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6014,10 +6014,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6028,10 +6028,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6042,10 +6042,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6056,10 +6056,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6070,10 +6070,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6084,10 +6084,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6098,10 +6098,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6112,10 +6112,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6126,10 +6126,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6140,10 +6140,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6154,10 +6154,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6168,10 +6168,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6182,10 +6182,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6196,10 +6196,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6210,10 +6210,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6224,10 +6224,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6238,10 +6238,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6252,10 +6252,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6266,10 +6266,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6280,10 +6280,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6294,10 +6294,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6308,10 +6308,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6322,10 +6322,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6350,10 +6350,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6364,10 +6364,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6386,10 +6386,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6400,10 +6400,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6414,10 +6414,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6428,10 +6428,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6442,10 +6442,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6456,10 +6456,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6470,10 +6470,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6484,10 +6484,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6498,10 +6498,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6526,10 +6526,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6540,10 +6540,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6554,10 +6554,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6568,10 +6568,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6582,10 +6582,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6596,10 +6596,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6610,10 +6610,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6624,10 +6624,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6646,10 +6646,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6660,10 +6660,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6674,10 +6674,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6702,10 +6702,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6716,10 +6716,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6730,10 +6730,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6744,10 +6744,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6758,10 +6758,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6772,10 +6772,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6786,10 +6786,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6800,10 +6800,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6814,10 +6814,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6828,10 +6828,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6842,10 +6842,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6856,10 +6856,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6870,10 +6870,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6884,10 +6884,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6898,10 +6898,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6912,10 +6912,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6926,10 +6926,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6940,10 +6940,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6954,10 +6954,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6968,10 +6968,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6982,10 +6982,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -6996,10 +6996,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7010,10 +7010,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7024,10 +7024,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7038,10 +7038,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7052,10 +7052,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7066,10 +7066,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7080,10 +7080,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7094,10 +7094,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7108,10 +7108,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7122,10 +7122,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7136,10 +7136,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7150,10 +7150,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7164,10 +7164,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7178,10 +7178,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7192,10 +7192,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7206,10 +7206,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7220,10 +7220,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7234,10 +7234,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7248,10 +7248,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7270,10 +7270,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7284,10 +7284,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7298,10 +7298,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7312,10 +7312,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7326,10 +7326,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7340,10 +7340,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7362,10 +7362,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7376,10 +7376,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7390,10 +7390,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7404,10 +7404,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7418,10 +7418,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7432,10 +7432,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7446,10 +7446,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7460,10 +7460,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7474,10 +7474,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7488,10 +7488,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7502,10 +7502,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7516,10 +7516,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7530,10 +7530,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7544,10 +7544,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7558,10 +7558,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7572,10 +7572,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7586,10 +7586,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7600,10 +7600,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7614,10 +7614,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7628,10 +7628,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7642,10 +7642,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7656,10 +7656,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7670,10 +7670,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7684,10 +7684,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7698,10 +7698,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7712,10 +7712,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7726,10 +7726,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7740,10 +7740,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7754,10 +7754,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7768,10 +7768,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7782,10 +7782,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7796,10 +7796,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7810,10 +7810,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7824,10 +7824,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7838,10 +7838,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7852,10 +7852,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7866,10 +7866,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7880,10 +7880,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7894,10 +7894,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7908,10 +7908,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7922,10 +7922,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7936,10 +7936,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7950,10 +7950,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7964,10 +7964,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7978,10 +7978,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -7992,10 +7992,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8006,10 +8006,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8020,10 +8020,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8034,10 +8034,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8048,10 +8048,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8062,10 +8062,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8076,10 +8076,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8090,10 +8090,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8104,10 +8104,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8118,10 +8118,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8132,10 +8132,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8146,10 +8146,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8160,10 +8160,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8174,10 +8174,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8188,10 +8188,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8211,10 +8211,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8225,10 +8225,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8239,10 +8239,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8253,10 +8253,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8267,10 +8267,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8281,10 +8281,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8295,10 +8295,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8309,10 +8309,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8323,10 +8323,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8337,10 +8337,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8388,7 +8388,7 @@
     <hyperlink ref="C40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
     <hyperlink ref="C44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="C45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="C45" r:id="rId38" display="Search an element in a matriix" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="C46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
     <hyperlink ref="C47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
     <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11FEAC2-BFA4-4F3B-821A-C868C376E40E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251704BE-839F-4EA9-946D-640A2A3196C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Spiral traversal on a Matrix</t>
   </si>
   <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
     <t>Find row with maximum no. of 1's</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t>Search an element in a matrix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix  (Learnt new concept of Upper and Lower bound for binary search)</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1934,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="A1" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -1966,7 +1966,7 @@
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
@@ -1983,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2011,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2039,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2137,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2165,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2193,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2207,7 +2207,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2221,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2235,7 +2235,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2249,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2263,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2277,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2305,7 +2305,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2333,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2347,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2361,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2375,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2389,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2403,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2417,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2431,7 +2431,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2445,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2459,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2470,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2496,7 +2496,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2507,24 +2507,24 @@
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
-      <c r="A46">
+      <c r="A46" s="15">
         <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2535,7 +2535,7 @@
         <v>40</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>4</v>
@@ -2549,7 +2549,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>4</v>
@@ -2563,7 +2563,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>4</v>
@@ -2577,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>4</v>
@@ -2591,7 +2591,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>4</v>
@@ -2619,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>4</v>
@@ -2635,10 +2635,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>4</v>
@@ -2649,10 +2649,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>4</v>
@@ -2663,10 +2663,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>4</v>
@@ -2677,10 +2677,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>4</v>
@@ -2691,10 +2691,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>4</v>
@@ -2705,10 +2705,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>4</v>
@@ -2719,10 +2719,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>4</v>
@@ -2733,10 +2733,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>4</v>
@@ -2747,10 +2747,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>4</v>
@@ -2761,10 +2761,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>4</v>
@@ -2775,10 +2775,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>4</v>
@@ -2789,10 +2789,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>4</v>
@@ -2803,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2817,10 +2817,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>4</v>
@@ -2831,10 +2831,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -2845,10 +2845,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>4</v>
@@ -2859,10 +2859,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>4</v>
@@ -2873,10 +2873,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>4</v>
@@ -2887,10 +2887,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>4</v>
@@ -2901,10 +2901,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>4</v>
@@ -2915,10 +2915,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>4</v>
@@ -2929,10 +2929,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>4</v>
@@ -2943,10 +2943,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>4</v>
@@ -2957,10 +2957,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>4</v>
@@ -2971,10 +2971,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
@@ -2985,10 +2985,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>4</v>
@@ -2999,10 +2999,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>4</v>
@@ -3013,10 +3013,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>4</v>
@@ -3027,10 +3027,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>4</v>
@@ -3041,10 +3041,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -3055,10 +3055,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>4</v>
@@ -3069,10 +3069,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
@@ -3083,10 +3083,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>4</v>
@@ -3097,10 +3097,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3111,10 +3111,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3125,10 +3125,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3139,10 +3139,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3153,10 +3153,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3167,10 +3167,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3181,10 +3181,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3195,10 +3195,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3209,10 +3209,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3223,10 +3223,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3242,10 +3242,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3256,10 +3256,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3270,10 +3270,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3284,10 +3284,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3298,10 +3298,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3312,10 +3312,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3326,10 +3326,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3340,10 +3340,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3354,10 +3354,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3368,10 +3368,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3382,10 +3382,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3396,10 +3396,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3410,10 +3410,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3424,10 +3424,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3438,10 +3438,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3452,10 +3452,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3466,10 +3466,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3480,10 +3480,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3494,10 +3494,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3508,10 +3508,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3522,10 +3522,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3536,10 +3536,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3550,10 +3550,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3564,10 +3564,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3578,10 +3578,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3592,10 +3592,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3606,10 +3606,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3620,10 +3620,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3634,10 +3634,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3648,10 +3648,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3662,10 +3662,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3676,10 +3676,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3690,10 +3690,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3704,10 +3704,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3718,10 +3718,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3732,10 +3732,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3750,10 +3750,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3764,10 +3764,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3778,10 +3778,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3792,10 +3792,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3806,10 +3806,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3820,10 +3820,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3834,10 +3834,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3848,10 +3848,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3862,10 +3862,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3876,10 +3876,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3890,10 +3890,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3904,10 +3904,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3918,10 +3918,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3932,10 +3932,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3946,10 +3946,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3974,10 +3974,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3988,10 +3988,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4002,10 +4002,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4016,10 +4016,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4030,10 +4030,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4044,10 +4044,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4058,10 +4058,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4072,10 +4072,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4086,10 +4086,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4100,10 +4100,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4114,10 +4114,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4128,10 +4128,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4142,10 +4142,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4156,10 +4156,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4170,10 +4170,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4184,10 +4184,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4198,10 +4198,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4212,10 +4212,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4226,10 +4226,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4240,10 +4240,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4258,10 +4258,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4272,10 +4272,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4286,10 +4286,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4300,10 +4300,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4314,10 +4314,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4328,10 +4328,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4342,10 +4342,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4356,10 +4356,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4370,10 +4370,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4384,10 +4384,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4398,10 +4398,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4412,10 +4412,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4426,10 +4426,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4440,10 +4440,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4454,10 +4454,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4468,10 +4468,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4482,10 +4482,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4496,10 +4496,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4510,10 +4510,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4524,10 +4524,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4538,10 +4538,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4552,10 +4552,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4566,10 +4566,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4580,10 +4580,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4594,10 +4594,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4608,10 +4608,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4622,10 +4622,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4636,10 +4636,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4650,10 +4650,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4664,10 +4664,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4678,10 +4678,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4692,10 +4692,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4706,10 +4706,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4720,10 +4720,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4734,10 +4734,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4758,10 +4758,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4772,10 +4772,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4786,10 +4786,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4800,10 +4800,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4814,10 +4814,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4828,10 +4828,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4842,10 +4842,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4856,10 +4856,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4870,10 +4870,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4884,10 +4884,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4898,10 +4898,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4912,10 +4912,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4926,10 +4926,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4940,10 +4940,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4954,10 +4954,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4968,10 +4968,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4982,10 +4982,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -4996,10 +4996,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5010,10 +5010,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5024,10 +5024,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5038,10 +5038,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5052,10 +5052,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5074,10 +5074,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5088,10 +5088,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5102,10 +5102,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5116,10 +5116,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5130,10 +5130,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5144,10 +5144,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5158,10 +5158,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5172,10 +5172,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5186,10 +5186,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5200,10 +5200,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5214,10 +5214,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5228,10 +5228,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5242,10 +5242,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5256,10 +5256,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5270,10 +5270,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5284,10 +5284,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5298,10 +5298,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5312,10 +5312,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5326,10 +5326,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5340,10 +5340,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5354,10 +5354,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5368,10 +5368,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5382,10 +5382,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5396,10 +5396,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5410,10 +5410,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5424,10 +5424,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5438,10 +5438,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5452,10 +5452,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5466,10 +5466,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5480,10 +5480,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5494,10 +5494,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5508,10 +5508,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5522,10 +5522,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5536,10 +5536,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5550,10 +5550,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5572,10 +5572,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5586,10 +5586,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5600,10 +5600,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5614,10 +5614,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5628,10 +5628,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5642,10 +5642,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5656,10 +5656,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5670,10 +5670,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5684,10 +5684,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5698,10 +5698,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5712,10 +5712,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5726,10 +5726,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5740,10 +5740,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5754,10 +5754,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5768,10 +5768,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5782,10 +5782,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5796,10 +5796,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5810,10 +5810,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5824,10 +5824,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5846,10 +5846,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5860,10 +5860,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5874,10 +5874,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5888,10 +5888,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5902,10 +5902,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5916,10 +5916,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5930,10 +5930,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5944,10 +5944,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5958,10 +5958,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5972,10 +5972,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5986,10 +5986,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6000,10 +6000,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6014,10 +6014,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6028,10 +6028,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6042,10 +6042,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6056,10 +6056,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6070,10 +6070,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6084,10 +6084,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6098,10 +6098,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6112,10 +6112,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6126,10 +6126,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6140,10 +6140,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6154,10 +6154,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6168,10 +6168,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6182,10 +6182,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6196,10 +6196,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6210,10 +6210,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6224,10 +6224,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6238,10 +6238,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6252,10 +6252,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6266,10 +6266,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6280,10 +6280,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6294,10 +6294,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6308,10 +6308,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6322,10 +6322,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6350,10 +6350,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6364,10 +6364,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6386,10 +6386,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6400,10 +6400,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6414,10 +6414,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6428,10 +6428,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6442,10 +6442,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6456,10 +6456,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6470,10 +6470,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6484,10 +6484,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6498,10 +6498,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6526,10 +6526,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6540,10 +6540,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6554,10 +6554,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6568,10 +6568,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6582,10 +6582,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6596,10 +6596,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6610,10 +6610,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6624,10 +6624,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6646,10 +6646,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6660,10 +6660,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6674,10 +6674,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6702,10 +6702,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6716,10 +6716,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6730,10 +6730,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6744,10 +6744,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6758,10 +6758,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6772,10 +6772,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6786,10 +6786,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6800,10 +6800,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6814,10 +6814,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6828,10 +6828,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6842,10 +6842,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6856,10 +6856,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6870,10 +6870,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6884,10 +6884,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6898,10 +6898,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6912,10 +6912,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6926,10 +6926,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6940,10 +6940,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6954,10 +6954,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6968,10 +6968,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6982,10 +6982,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -6996,10 +6996,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7010,10 +7010,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7024,10 +7024,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7038,10 +7038,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7052,10 +7052,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7066,10 +7066,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7080,10 +7080,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7094,10 +7094,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7108,10 +7108,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7122,10 +7122,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7136,10 +7136,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7150,10 +7150,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7164,10 +7164,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7178,10 +7178,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7192,10 +7192,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7206,10 +7206,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7220,10 +7220,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7234,10 +7234,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7248,10 +7248,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7270,10 +7270,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7284,10 +7284,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7298,10 +7298,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7312,10 +7312,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7326,10 +7326,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7340,10 +7340,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7362,10 +7362,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7376,10 +7376,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7390,10 +7390,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7404,10 +7404,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7418,10 +7418,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7432,10 +7432,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7446,10 +7446,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7460,10 +7460,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7474,10 +7474,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7488,10 +7488,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7502,10 +7502,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7516,10 +7516,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7530,10 +7530,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7544,10 +7544,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7558,10 +7558,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7572,10 +7572,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7586,10 +7586,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7600,10 +7600,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7614,10 +7614,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7628,10 +7628,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7642,10 +7642,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7656,10 +7656,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7670,10 +7670,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7684,10 +7684,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7698,10 +7698,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7712,10 +7712,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7726,10 +7726,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7740,10 +7740,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7754,10 +7754,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7768,10 +7768,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7782,10 +7782,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7796,10 +7796,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7810,10 +7810,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7824,10 +7824,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7838,10 +7838,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7852,10 +7852,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7866,10 +7866,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7880,10 +7880,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7894,10 +7894,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7908,10 +7908,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7922,10 +7922,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7936,10 +7936,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7950,10 +7950,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7964,10 +7964,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7978,10 +7978,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -7992,10 +7992,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8006,10 +8006,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8020,10 +8020,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8034,10 +8034,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8048,10 +8048,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8062,10 +8062,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8076,10 +8076,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8090,10 +8090,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8104,10 +8104,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8118,10 +8118,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8132,10 +8132,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8146,10 +8146,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8160,10 +8160,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8174,10 +8174,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8188,10 +8188,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8211,10 +8211,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8225,10 +8225,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8239,10 +8239,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8253,10 +8253,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8267,10 +8267,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8281,10 +8281,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8295,10 +8295,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8309,10 +8309,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8323,10 +8323,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8337,10 +8337,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8389,7 +8389,7 @@
     <hyperlink ref="C41" r:id="rId36" display="Median of 2 sorted arrays of different size" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
     <hyperlink ref="C44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
     <hyperlink ref="C45" r:id="rId38" display="Search an element in a matriix" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="C46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="C46" r:id="rId39" display="Find median in a row wise sorted matrix" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
     <hyperlink ref="C47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
     <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
     <hyperlink ref="C49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251704BE-839F-4EA9-946D-640A2A3196C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0BF79-9AB7-4627-A936-0ACD2C10B95E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2528,7 +2528,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
-      <c r="A47">
+      <c r="A47" s="15">
         <v>40</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -2537,8 +2537,8 @@
       <c r="C47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>4</v>
+      <c r="D47" s="11" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0BF79-9AB7-4627-A936-0ACD2C10B95E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169A13E-C8E7-4573-B149-679F3E956374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2542,7 +2542,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
-      <c r="A48">
+      <c r="A48" s="12">
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2551,8 +2551,8 @@
       <c r="C48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>4</v>
+      <c r="D48" s="11" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169A13E-C8E7-4573-B149-679F3E956374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31AA20-EC4F-4365-8031-3CF3D7C7A674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Maximum size rectangle</t>
   </si>
   <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
     <t>Rotate matrix by 90 degrees</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t>Find median in a row wise sorted matrix  (Learnt new concept of Upper and Lower bound for binary search)</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix   (Read the Editorial in Gfg)</t>
   </si>
 </sst>
 </file>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1934,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="A1" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -1966,7 +1966,7 @@
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
@@ -1983,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2011,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2039,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2137,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2165,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2193,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2207,7 +2207,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2221,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2235,7 +2235,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2249,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2263,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2277,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2305,7 +2305,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2333,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2347,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2361,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2375,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2389,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2403,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2417,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2431,7 +2431,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2445,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2459,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2470,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2496,7 +2496,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2507,10 +2507,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2521,10 +2521,10 @@
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2538,7 +2538,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2552,11 +2552,11 @@
         <v>43</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
-      <c r="A49">
+      <c r="A49" s="15">
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -2570,17 +2570,17 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
-      <c r="A50">
+      <c r="A50" s="15">
         <v>43</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2591,7 +2591,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>4</v>
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>4</v>
@@ -2619,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>4</v>
@@ -2635,10 +2635,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>4</v>
@@ -2649,10 +2649,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>4</v>
@@ -2663,10 +2663,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>4</v>
@@ -2677,10 +2677,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>4</v>
@@ -2691,10 +2691,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>4</v>
@@ -2705,10 +2705,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>4</v>
@@ -2719,10 +2719,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>4</v>
@@ -2733,10 +2733,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>4</v>
@@ -2747,10 +2747,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>4</v>
@@ -2761,10 +2761,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>4</v>
@@ -2775,10 +2775,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>4</v>
@@ -2789,10 +2789,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>4</v>
@@ -2803,10 +2803,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2817,10 +2817,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>4</v>
@@ -2831,10 +2831,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -2845,10 +2845,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>4</v>
@@ -2859,10 +2859,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>4</v>
@@ -2873,10 +2873,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>4</v>
@@ -2887,10 +2887,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>4</v>
@@ -2901,10 +2901,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>4</v>
@@ -2915,10 +2915,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>4</v>
@@ -2929,10 +2929,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>4</v>
@@ -2943,10 +2943,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>4</v>
@@ -2957,10 +2957,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>4</v>
@@ -2971,10 +2971,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
@@ -2985,10 +2985,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>4</v>
@@ -2999,10 +2999,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>4</v>
@@ -3013,10 +3013,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>4</v>
@@ -3027,10 +3027,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>4</v>
@@ -3041,10 +3041,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -3055,10 +3055,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>4</v>
@@ -3069,10 +3069,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
@@ -3083,10 +3083,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>4</v>
@@ -3097,10 +3097,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3111,10 +3111,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3125,10 +3125,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3139,10 +3139,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3153,10 +3153,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3167,10 +3167,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3181,10 +3181,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3195,10 +3195,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3209,10 +3209,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3223,10 +3223,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3242,10 +3242,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3256,10 +3256,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3270,10 +3270,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3284,10 +3284,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3298,10 +3298,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3312,10 +3312,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3326,10 +3326,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3340,10 +3340,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3354,10 +3354,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3368,10 +3368,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3382,10 +3382,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3396,10 +3396,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3410,10 +3410,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3424,10 +3424,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3438,10 +3438,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3452,10 +3452,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3466,10 +3466,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3480,10 +3480,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3494,10 +3494,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3508,10 +3508,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3522,10 +3522,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3536,10 +3536,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3550,10 +3550,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3564,10 +3564,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3578,10 +3578,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3592,10 +3592,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3606,10 +3606,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3620,10 +3620,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3634,10 +3634,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3648,10 +3648,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3662,10 +3662,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3676,10 +3676,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3690,10 +3690,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3704,10 +3704,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3718,10 +3718,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3732,10 +3732,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3750,10 +3750,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3764,10 +3764,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3778,10 +3778,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3792,10 +3792,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3806,10 +3806,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3820,10 +3820,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3834,10 +3834,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3848,10 +3848,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3862,10 +3862,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3876,10 +3876,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3890,10 +3890,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3904,10 +3904,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3918,10 +3918,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3932,10 +3932,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3946,10 +3946,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3974,10 +3974,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3988,10 +3988,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4002,10 +4002,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4016,10 +4016,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4030,10 +4030,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4044,10 +4044,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4058,10 +4058,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4072,10 +4072,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4086,10 +4086,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4100,10 +4100,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4114,10 +4114,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4128,10 +4128,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4142,10 +4142,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4156,10 +4156,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4170,10 +4170,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4184,10 +4184,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4198,10 +4198,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4212,10 +4212,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4226,10 +4226,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4240,10 +4240,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4258,10 +4258,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4272,10 +4272,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4286,10 +4286,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4300,10 +4300,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4314,10 +4314,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4328,10 +4328,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4342,10 +4342,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4356,10 +4356,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4370,10 +4370,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4384,10 +4384,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4398,10 +4398,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4412,10 +4412,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4426,10 +4426,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4440,10 +4440,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4454,10 +4454,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4468,10 +4468,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4482,10 +4482,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4496,10 +4496,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4510,10 +4510,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4524,10 +4524,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4538,10 +4538,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4552,10 +4552,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4566,10 +4566,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4580,10 +4580,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4594,10 +4594,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4608,10 +4608,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4622,10 +4622,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4636,10 +4636,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4650,10 +4650,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4664,10 +4664,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4678,10 +4678,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4692,10 +4692,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4706,10 +4706,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4720,10 +4720,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4734,10 +4734,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4758,10 +4758,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4772,10 +4772,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4786,10 +4786,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4800,10 +4800,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4814,10 +4814,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4828,10 +4828,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4842,10 +4842,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4856,10 +4856,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4870,10 +4870,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4884,10 +4884,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4898,10 +4898,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4912,10 +4912,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4926,10 +4926,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4940,10 +4940,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4954,10 +4954,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4968,10 +4968,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4982,10 +4982,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -4996,10 +4996,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5010,10 +5010,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5024,10 +5024,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5038,10 +5038,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5052,10 +5052,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5074,10 +5074,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5088,10 +5088,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5102,10 +5102,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5116,10 +5116,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5130,10 +5130,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5144,10 +5144,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5158,10 +5158,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5172,10 +5172,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5186,10 +5186,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5200,10 +5200,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5214,10 +5214,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5228,10 +5228,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5242,10 +5242,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5256,10 +5256,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5270,10 +5270,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5284,10 +5284,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5298,10 +5298,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5312,10 +5312,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5326,10 +5326,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5340,10 +5340,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5354,10 +5354,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5368,10 +5368,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5382,10 +5382,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5396,10 +5396,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5410,10 +5410,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5424,10 +5424,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5438,10 +5438,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5452,10 +5452,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5466,10 +5466,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5480,10 +5480,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5494,10 +5494,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5508,10 +5508,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5522,10 +5522,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5536,10 +5536,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5550,10 +5550,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5572,10 +5572,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5586,10 +5586,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5600,10 +5600,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5614,10 +5614,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5628,10 +5628,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5642,10 +5642,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5656,10 +5656,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5670,10 +5670,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5684,10 +5684,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5698,10 +5698,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5712,10 +5712,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5726,10 +5726,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5740,10 +5740,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5754,10 +5754,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5768,10 +5768,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5782,10 +5782,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5796,10 +5796,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5810,10 +5810,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5824,10 +5824,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5846,10 +5846,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5860,10 +5860,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5874,10 +5874,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5888,10 +5888,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5902,10 +5902,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5916,10 +5916,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5930,10 +5930,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5944,10 +5944,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5958,10 +5958,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5972,10 +5972,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5986,10 +5986,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6000,10 +6000,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6014,10 +6014,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6028,10 +6028,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6042,10 +6042,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6056,10 +6056,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6070,10 +6070,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6084,10 +6084,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6098,10 +6098,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6112,10 +6112,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6126,10 +6126,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6140,10 +6140,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6154,10 +6154,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6168,10 +6168,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6182,10 +6182,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6196,10 +6196,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6210,10 +6210,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6224,10 +6224,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6238,10 +6238,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6252,10 +6252,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6266,10 +6266,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6280,10 +6280,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6294,10 +6294,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6308,10 +6308,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6322,10 +6322,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6350,10 +6350,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6364,10 +6364,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6386,10 +6386,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6400,10 +6400,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6414,10 +6414,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6428,10 +6428,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6442,10 +6442,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6456,10 +6456,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6470,10 +6470,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6484,10 +6484,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6498,10 +6498,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6512,10 +6512,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6526,10 +6526,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6540,10 +6540,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6554,10 +6554,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6568,10 +6568,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6582,10 +6582,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6596,10 +6596,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6610,10 +6610,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6624,10 +6624,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6646,10 +6646,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6660,10 +6660,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6674,10 +6674,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6702,10 +6702,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6716,10 +6716,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6730,10 +6730,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6744,10 +6744,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6758,10 +6758,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6772,10 +6772,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6786,10 +6786,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6800,10 +6800,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6814,10 +6814,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6828,10 +6828,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6842,10 +6842,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6856,10 +6856,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6870,10 +6870,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6884,10 +6884,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6898,10 +6898,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6912,10 +6912,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6926,10 +6926,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6940,10 +6940,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6954,10 +6954,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6968,10 +6968,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6982,10 +6982,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -6996,10 +6996,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7010,10 +7010,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7024,10 +7024,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7038,10 +7038,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7052,10 +7052,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7066,10 +7066,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7080,10 +7080,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7094,10 +7094,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7108,10 +7108,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7122,10 +7122,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7136,10 +7136,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7150,10 +7150,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7164,10 +7164,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7178,10 +7178,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7192,10 +7192,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7206,10 +7206,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7220,10 +7220,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7234,10 +7234,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7248,10 +7248,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7270,10 +7270,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7284,10 +7284,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7298,10 +7298,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7312,10 +7312,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7326,10 +7326,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7340,10 +7340,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7362,10 +7362,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7376,10 +7376,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7390,10 +7390,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7404,10 +7404,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7418,10 +7418,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7432,10 +7432,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7446,10 +7446,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7460,10 +7460,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7474,10 +7474,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7488,10 +7488,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7502,10 +7502,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7516,10 +7516,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7530,10 +7530,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7544,10 +7544,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7558,10 +7558,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7572,10 +7572,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7586,10 +7586,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7600,10 +7600,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7614,10 +7614,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7628,10 +7628,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7642,10 +7642,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7656,10 +7656,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7670,10 +7670,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7684,10 +7684,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7698,10 +7698,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7712,10 +7712,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7726,10 +7726,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7740,10 +7740,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7754,10 +7754,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7768,10 +7768,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7782,10 +7782,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7796,10 +7796,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7810,10 +7810,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7824,10 +7824,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7838,10 +7838,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7852,10 +7852,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7866,10 +7866,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7880,10 +7880,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7894,10 +7894,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7908,10 +7908,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7922,10 +7922,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7936,10 +7936,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7950,10 +7950,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7964,10 +7964,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7978,10 +7978,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -7992,10 +7992,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8006,10 +8006,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8020,10 +8020,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8034,10 +8034,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8048,10 +8048,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8062,10 +8062,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8076,10 +8076,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8090,10 +8090,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8104,10 +8104,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8118,10 +8118,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8132,10 +8132,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8146,10 +8146,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8160,10 +8160,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8174,10 +8174,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8188,10 +8188,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8211,10 +8211,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8225,10 +8225,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8239,10 +8239,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8253,10 +8253,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8267,10 +8267,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8281,10 +8281,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8295,10 +8295,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8309,10 +8309,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8323,10 +8323,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8337,10 +8337,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8393,7 +8393,7 @@
     <hyperlink ref="C47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
     <hyperlink ref="C48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
     <hyperlink ref="C49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="C50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="C50" r:id="rId43" display="Find a specific pair in matrix" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
     <hyperlink ref="C51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
     <hyperlink ref="C52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
     <hyperlink ref="C53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31AA20-EC4F-4365-8031-3CF3D7C7A674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B24A932-5CDD-4660-9435-4899A602AF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2584,7 +2584,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
-      <c r="A51">
+      <c r="A51" s="12">
         <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2593,8 +2593,8 @@
       <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>4</v>
+      <c r="D51" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B24A932-5CDD-4660-9435-4899A602AF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B6530-9BCF-4D29-BDB2-8421600214AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
-      <c r="A52">
+      <c r="A52" s="12">
         <v>45</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -2607,8 +2607,8 @@
       <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>4</v>
+      <c r="D52" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818B6530-9BCF-4D29-BDB2-8421600214AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7AB6E-C8EB-420B-BA4E-394E6271237C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
-      <c r="A53">
+      <c r="A53" s="12">
         <v>46</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -2621,8 +2621,8 @@
       <c r="C53" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>4</v>
+      <c r="D53" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7AB6E-C8EB-420B-BA4E-394E6271237C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC670D39-E462-4297-AB51-8D4263F9A7A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC670D39-E462-4297-AB51-8D4263F9A7A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C81ABB-A006-4227-9139-DF7D2A83FD03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="83" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="84" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2625,13 +2625,16 @@
         <v>460</v>
       </c>
     </row>
+    <row r="54" spans="1:4">
+      <c r="D54"/>
+    </row>
     <row r="55" spans="1:4" ht="21">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="10"/>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:4" ht="21">
-      <c r="A56">
+      <c r="A56" s="12">
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2640,8 +2643,8 @@
       <c r="C56" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>4</v>
+      <c r="D56" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C81ABB-A006-4227-9139-DF7D2A83FD03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961036FF-AD96-43E3-8D76-9642033F1957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="84" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="84" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
-      <c r="A57">
+      <c r="A57" s="12">
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2657,8 +2657,8 @@
       <c r="C57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>4</v>
+      <c r="D57" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961036FF-AD96-43E3-8D76-9642033F1957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A065FE5-2F39-4661-968F-EE4E322EFB0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="84" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
-      <c r="A58">
+      <c r="A58" s="12">
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2671,8 +2671,8 @@
       <c r="C58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>4</v>
+      <c r="D58" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A065FE5-2F39-4661-968F-EE4E322EFB0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97196576-F401-4D8F-A396-17315F95EE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="84" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
-      <c r="A59">
+      <c r="A59" s="12">
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2685,12 +2685,12 @@
       <c r="C59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>4</v>
+      <c r="D59" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
-      <c r="A60">
+      <c r="A60" s="12">
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2699,8 +2699,8 @@
       <c r="C60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>4</v>
+      <c r="D60" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97196576-F401-4D8F-A396-17315F95EE81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552BFEE9-204D-4DE2-BA17-7E9386A8AB7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2704,7 +2704,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
-      <c r="A61">
+      <c r="A61" s="12">
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2713,8 +2713,8 @@
       <c r="C61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>4</v>
+      <c r="D61" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552BFEE9-204D-4DE2-BA17-7E9386A8AB7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0FF898-D92F-4DE4-87D9-C0C539C94C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
-      <c r="A62">
+      <c r="A62" s="12">
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2727,8 +2727,8 @@
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>4</v>
+      <c r="D62" s="11" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0FF898-D92F-4DE4-87D9-C0C539C94C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77F502-1C94-4AE6-B270-3A22DD2F714A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Count and Say problem</t>
   </si>
   <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
     <t>Find Longest Recurring Subsequence in String</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t>Find a specific pair in matrix   (Read the Editorial in Gfg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] Read Manachers Algo.. See downloaded Video </t>
   </si>
 </sst>
 </file>
@@ -1919,22 +1919,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="123" customWidth="1"/>
+    <col min="3" max="3" width="159.8984375" customWidth="1"/>
     <col min="4" max="4" width="42.3984375" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="A1" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="16"/>
       <c r="C2" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D2" s="12"/>
     </row>
@@ -1966,7 +1966,7 @@
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
@@ -1983,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2011,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2025,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2039,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2081,7 +2081,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2120,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2137,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2165,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2193,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2207,7 +2207,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2221,7 +2221,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2235,7 +2235,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2249,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2263,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2277,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2291,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2305,7 +2305,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2333,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2347,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2361,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2375,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2389,7 +2389,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2403,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2417,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2431,7 +2431,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2445,7 +2445,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2459,7 +2459,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2470,10 +2470,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2496,7 +2496,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2507,10 +2507,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2521,10 +2521,10 @@
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2538,7 +2538,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2552,7 +2552,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
@@ -2577,10 +2577,10 @@
         <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2594,7 +2594,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
@@ -2608,7 +2608,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
@@ -2622,7 +2622,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2644,7 +2644,7 @@
         <v>49</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2658,7 +2658,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2672,7 +2672,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2686,7 +2686,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2700,7 +2700,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
@@ -2714,7 +2714,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
@@ -2728,21 +2728,21 @@
         <v>55</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
-      <c r="A63">
+      <c r="A63" s="15">
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
@@ -2753,7 +2753,7 @@
         <v>48</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>4</v>
@@ -2767,7 +2767,7 @@
         <v>48</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>4</v>
@@ -2781,7 +2781,7 @@
         <v>48</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>4</v>
@@ -2795,7 +2795,7 @@
         <v>48</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>4</v>
@@ -2809,7 +2809,7 @@
         <v>48</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2823,7 +2823,7 @@
         <v>48</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>4</v>
@@ -2837,7 +2837,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -2851,7 +2851,7 @@
         <v>48</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>4</v>
@@ -2865,7 +2865,7 @@
         <v>48</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>4</v>
@@ -2879,7 +2879,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>4</v>
@@ -2893,7 +2893,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>4</v>
@@ -2907,7 +2907,7 @@
         <v>48</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>4</v>
@@ -2921,7 +2921,7 @@
         <v>48</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>4</v>
@@ -2935,7 +2935,7 @@
         <v>48</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>4</v>
@@ -2949,7 +2949,7 @@
         <v>48</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>4</v>
@@ -2963,7 +2963,7 @@
         <v>48</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>48</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
@@ -2991,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>4</v>
@@ -3005,7 +3005,7 @@
         <v>48</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>48</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>4</v>
@@ -3033,7 +3033,7 @@
         <v>48</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>4</v>
@@ -3047,7 +3047,7 @@
         <v>48</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>4</v>
@@ -3061,7 +3061,7 @@
         <v>48</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>4</v>
@@ -3075,7 +3075,7 @@
         <v>48</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
@@ -3089,7 +3089,7 @@
         <v>48</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>4</v>
@@ -3103,7 +3103,7 @@
         <v>48</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3117,7 +3117,7 @@
         <v>48</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3131,7 +3131,7 @@
         <v>48</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3145,7 +3145,7 @@
         <v>48</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3159,7 +3159,7 @@
         <v>48</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3173,7 +3173,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3187,7 +3187,7 @@
         <v>48</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3201,7 +3201,7 @@
         <v>48</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>48</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3229,7 +3229,7 @@
         <v>48</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3245,10 +3245,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3259,10 +3259,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3273,10 +3273,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3287,10 +3287,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3301,10 +3301,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3315,10 +3315,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3329,10 +3329,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3343,10 +3343,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3357,10 +3357,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3371,10 +3371,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3385,10 +3385,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3399,10 +3399,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3413,10 +3413,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3427,10 +3427,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3441,10 +3441,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3455,10 +3455,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3469,10 +3469,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3483,10 +3483,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3497,10 +3497,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3511,10 +3511,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3525,10 +3525,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3539,10 +3539,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3553,10 +3553,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3567,10 +3567,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3581,10 +3581,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3595,10 +3595,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3609,10 +3609,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3623,10 +3623,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3637,10 +3637,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3651,10 +3651,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3665,10 +3665,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3679,10 +3679,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3693,10 +3693,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3707,10 +3707,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3721,10 +3721,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3735,10 +3735,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3753,10 +3753,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3767,10 +3767,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3781,10 +3781,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3795,10 +3795,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3809,10 +3809,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3823,10 +3823,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3837,10 +3837,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3851,10 +3851,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3865,10 +3865,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3879,10 +3879,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3893,10 +3893,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3907,10 +3907,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3921,10 +3921,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3935,10 +3935,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3949,10 +3949,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3963,10 +3963,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3977,10 +3977,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3991,10 +3991,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4005,10 +4005,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4019,10 +4019,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4033,10 +4033,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4047,10 +4047,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4061,10 +4061,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4075,10 +4075,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4089,10 +4089,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4103,10 +4103,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4117,10 +4117,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4131,10 +4131,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4145,10 +4145,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4159,10 +4159,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4173,10 +4173,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4187,10 +4187,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4201,10 +4201,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4215,10 +4215,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4229,10 +4229,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4243,10 +4243,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4261,10 +4261,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4275,10 +4275,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4289,10 +4289,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4303,10 +4303,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4317,10 +4317,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4331,10 +4331,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4345,10 +4345,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4359,10 +4359,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4373,10 +4373,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4387,10 +4387,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4401,10 +4401,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4415,10 +4415,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4429,10 +4429,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4443,10 +4443,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4457,10 +4457,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4471,10 +4471,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4485,10 +4485,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4499,10 +4499,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4513,10 +4513,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4527,10 +4527,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4541,10 +4541,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4555,10 +4555,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4569,10 +4569,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4583,10 +4583,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4597,10 +4597,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4611,10 +4611,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4625,10 +4625,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4639,10 +4639,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4653,10 +4653,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4667,10 +4667,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4681,10 +4681,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4695,10 +4695,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4709,10 +4709,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4723,10 +4723,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4737,10 +4737,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4761,10 +4761,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4775,10 +4775,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4789,10 +4789,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4803,10 +4803,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4817,10 +4817,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4831,10 +4831,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4845,10 +4845,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4859,10 +4859,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4873,10 +4873,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4887,10 +4887,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4901,10 +4901,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4915,10 +4915,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4929,10 +4929,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4943,10 +4943,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4957,10 +4957,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4971,10 +4971,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4985,10 +4985,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -4999,10 +4999,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5013,10 +5013,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5027,10 +5027,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5041,10 +5041,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5055,10 +5055,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5077,10 +5077,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5091,10 +5091,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5105,10 +5105,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5119,10 +5119,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5133,10 +5133,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5147,10 +5147,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5161,10 +5161,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5175,10 +5175,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5189,10 +5189,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5203,10 +5203,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5217,10 +5217,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5231,10 +5231,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5245,10 +5245,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5259,10 +5259,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5273,10 +5273,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5287,10 +5287,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5301,10 +5301,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5315,10 +5315,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5329,10 +5329,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5343,10 +5343,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5357,10 +5357,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5371,10 +5371,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5385,10 +5385,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5399,10 +5399,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5413,10 +5413,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5427,10 +5427,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5441,10 +5441,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5455,10 +5455,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5469,10 +5469,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5483,10 +5483,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5497,10 +5497,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5511,10 +5511,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5525,10 +5525,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5539,10 +5539,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5553,10 +5553,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5575,10 +5575,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5589,10 +5589,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5603,10 +5603,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5617,10 +5617,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5631,10 +5631,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5645,10 +5645,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5659,10 +5659,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5673,10 +5673,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5687,10 +5687,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5701,10 +5701,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5715,10 +5715,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5729,10 +5729,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5743,10 +5743,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5757,10 +5757,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5771,10 +5771,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5785,10 +5785,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5799,10 +5799,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5813,10 +5813,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5827,10 +5827,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5849,10 +5849,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5863,10 +5863,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5877,10 +5877,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5891,10 +5891,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5905,10 +5905,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5919,10 +5919,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5933,10 +5933,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5947,10 +5947,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5961,10 +5961,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5975,10 +5975,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5989,10 +5989,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6003,10 +6003,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6017,10 +6017,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6031,10 +6031,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6045,10 +6045,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6059,10 +6059,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6073,10 +6073,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6087,10 +6087,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6101,10 +6101,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6115,10 +6115,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6129,10 +6129,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6143,10 +6143,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6157,10 +6157,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6171,10 +6171,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6185,10 +6185,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6199,10 +6199,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6213,10 +6213,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6227,10 +6227,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6241,10 +6241,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6255,10 +6255,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6269,10 +6269,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6283,10 +6283,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6297,10 +6297,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6311,10 +6311,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6325,10 +6325,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6339,10 +6339,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6353,10 +6353,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6367,10 +6367,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6389,10 +6389,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6403,10 +6403,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6417,10 +6417,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6431,10 +6431,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6445,10 +6445,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6459,10 +6459,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6473,10 +6473,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6487,10 +6487,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6501,10 +6501,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6515,10 +6515,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6529,10 +6529,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6543,10 +6543,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6557,10 +6557,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6571,10 +6571,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6585,10 +6585,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6599,10 +6599,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6613,10 +6613,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6627,10 +6627,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6649,10 +6649,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6663,10 +6663,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6677,10 +6677,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6691,10 +6691,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6705,10 +6705,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6719,10 +6719,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6733,10 +6733,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6747,10 +6747,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6761,10 +6761,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6775,10 +6775,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6789,10 +6789,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6803,10 +6803,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6817,10 +6817,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6831,10 +6831,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6845,10 +6845,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6859,10 +6859,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6873,10 +6873,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6887,10 +6887,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6901,10 +6901,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6915,10 +6915,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6929,10 +6929,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6943,10 +6943,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6957,10 +6957,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6971,10 +6971,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6985,10 +6985,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -6999,10 +6999,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7013,10 +7013,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7027,10 +7027,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7041,10 +7041,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7055,10 +7055,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7069,10 +7069,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7083,10 +7083,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7097,10 +7097,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7111,10 +7111,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7125,10 +7125,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7139,10 +7139,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7153,10 +7153,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7167,10 +7167,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7181,10 +7181,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7195,10 +7195,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7209,10 +7209,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7223,10 +7223,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7237,10 +7237,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7251,10 +7251,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7273,10 +7273,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7287,10 +7287,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7301,10 +7301,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7315,10 +7315,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7329,10 +7329,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7343,10 +7343,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7365,10 +7365,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7379,10 +7379,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7393,10 +7393,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7407,10 +7407,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7421,10 +7421,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7435,10 +7435,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7449,10 +7449,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7463,10 +7463,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7477,10 +7477,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7491,10 +7491,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7505,10 +7505,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7519,10 +7519,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7533,10 +7533,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7547,10 +7547,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7561,10 +7561,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7575,10 +7575,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7589,10 +7589,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7603,10 +7603,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7617,10 +7617,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7631,10 +7631,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7645,10 +7645,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7659,10 +7659,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7673,10 +7673,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7687,10 +7687,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7701,10 +7701,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7715,10 +7715,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7729,10 +7729,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7743,10 +7743,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7757,10 +7757,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7771,10 +7771,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7785,10 +7785,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7799,10 +7799,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7813,10 +7813,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7827,10 +7827,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7841,10 +7841,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7855,10 +7855,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7869,10 +7869,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7883,10 +7883,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7897,10 +7897,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7911,10 +7911,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7925,10 +7925,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7939,10 +7939,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7953,10 +7953,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7967,10 +7967,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7981,10 +7981,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -7995,10 +7995,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8009,10 +8009,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8023,10 +8023,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8037,10 +8037,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8051,10 +8051,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8065,10 +8065,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8079,10 +8079,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8093,10 +8093,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8107,10 +8107,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8121,10 +8121,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8135,10 +8135,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8149,10 +8149,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8163,10 +8163,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8177,10 +8177,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8191,10 +8191,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8214,10 +8214,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8228,10 +8228,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8242,10 +8242,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8256,10 +8256,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8270,10 +8270,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8284,10 +8284,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8298,10 +8298,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8312,10 +8312,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8326,10 +8326,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8340,10 +8340,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8406,7 +8406,7 @@
     <hyperlink ref="C60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
     <hyperlink ref="C61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
     <hyperlink ref="C62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="C63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="C63" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
     <hyperlink ref="C64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
     <hyperlink ref="C65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
     <hyperlink ref="C66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77F502-1C94-4AE6-B270-3A22DD2F714A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3DCCA2-B578-4ECE-81A1-D97247DA3401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="21">
-      <c r="A86">
+      <c r="A86" s="15">
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -3063,8 +3063,8 @@
       <c r="C86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>4</v>
+      <c r="D86" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3DCCA2-B578-4ECE-81A1-D97247DA3401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2441C-2081-4BD2-A3DF-985FA96BAA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="78" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2746,7 +2746,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
-      <c r="A64">
+      <c r="A64" s="15">
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2755,12 +2755,12 @@
       <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>4</v>
+      <c r="D64" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
-      <c r="A65">
+      <c r="A65" s="12">
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2769,8 +2769,8 @@
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>4</v>
+      <c r="D65" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2441C-2081-4BD2-A3DF-985FA96BAA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582153D0-B898-4492-B2AB-6FD9255B42EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
-      <c r="A66">
+      <c r="A66" s="15">
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2783,8 +2783,8 @@
       <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>4</v>
+      <c r="D66" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582153D0-B898-4492-B2AB-6FD9255B42EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E52CFD-40FF-45A8-AA45-209D7449E5ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2788,7 +2788,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
-      <c r="A67">
+      <c r="A67" s="12">
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2797,8 +2797,8 @@
       <c r="C67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>4</v>
+      <c r="D67" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E52CFD-40FF-45A8-AA45-209D7449E5ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB8325-C030-4C61-A8A1-3C2DCD86A059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2802,7 +2802,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
-      <c r="A68">
+      <c r="A68" s="15">
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="21">
-      <c r="A69">
+      <c r="A69" s="15">
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2825,8 +2825,8 @@
       <c r="C69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>4</v>
+      <c r="D69" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB8325-C030-4C61-A8A1-3C2DCD86A059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3E8DE-BEC6-4609-8CCB-AC75C01D2E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
-      <c r="A70">
+      <c r="A70" s="12">
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2839,8 +2839,8 @@
       <c r="C70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>4</v>
+      <c r="D70" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF3E8DE-BEC6-4609-8CCB-AC75C01D2E67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E1AF4-A915-4634-B91B-85A2EFB03420}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2844,7 +2844,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
-      <c r="A71">
+      <c r="A71" s="12">
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2853,8 +2853,8 @@
       <c r="C71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>4</v>
+      <c r="D71" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E1AF4-A915-4634-B91B-85A2EFB03420}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70197C0-F7A9-4CF8-8EE4-C9D406594415}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
-      <c r="A72">
+      <c r="A72" s="12">
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2867,8 +2867,8 @@
       <c r="C72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>4</v>
+      <c r="D72" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70197C0-F7A9-4CF8-8EE4-C9D406594415}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C6BBB-3B3D-47C3-B65B-B4784CF764E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
-      <c r="A72" s="12">
+      <c r="A72" s="15">
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2872,7 +2872,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
-      <c r="A73">
+      <c r="A73" s="15">
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2881,8 +2881,8 @@
       <c r="C73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="10" t="s">
-        <v>4</v>
+      <c r="D73" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C6BBB-3B3D-47C3-B65B-B4784CF764E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E363951-7FB0-41F8-9080-9D51D5BE0448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="79" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
-      <c r="A74">
+      <c r="A74" s="15">
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2895,8 +2895,8 @@
       <c r="C74" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>4</v>
+      <c r="D74" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E363951-7FB0-41F8-9080-9D51D5BE0448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44BCA7-2FAB-4109-82CE-03229FD579D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="79" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2900,7 +2900,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
-      <c r="A75">
+      <c r="A75" s="12">
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -2909,8 +2909,8 @@
       <c r="C75" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>4</v>
+      <c r="D75" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44BCA7-2FAB-4109-82CE-03229FD579D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E46ADF-2854-46C2-A4E7-77322B29B703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2914,7 +2914,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
-      <c r="A76">
+      <c r="A76" s="12">
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2923,8 +2923,8 @@
       <c r="C76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>4</v>
+      <c r="D76" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E46ADF-2854-46C2-A4E7-77322B29B703}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F9C84-36AB-47C8-9F0A-6EE0E3B75C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2937,8 +2937,8 @@
       <c r="C77" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="10" t="s">
-        <v>4</v>
+      <c r="D77" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F9C84-36AB-47C8-9F0A-6EE0E3B75C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB9D88E-1748-4D2D-BD64-6130BC1E44F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2928,7 +2928,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
-      <c r="A77">
+      <c r="A77" s="15">
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB9D88E-1748-4D2D-BD64-6130BC1E44F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0374C58-01F0-49C4-BD92-744CB13A4ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2942,7 +2942,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
-      <c r="A78">
+      <c r="A78" s="12">
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2951,8 +2951,8 @@
       <c r="C78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>4</v>
+      <c r="D78" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0374C58-01F0-49C4-BD92-744CB13A4ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED35007-5E16-4935-A921-09626E9D5C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2956,7 +2956,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
-      <c r="A79">
+      <c r="A79" s="15">
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -2965,8 +2965,8 @@
       <c r="C79" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>4</v>
+      <c r="D79" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED35007-5E16-4935-A921-09626E9D5C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5599E9BF-846E-4820-9769-842E060ADEBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2970,7 +2970,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
-      <c r="A80">
+      <c r="A80" s="15">
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="21">
-      <c r="A81">
+      <c r="A81" s="12">
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -2993,12 +2993,12 @@
       <c r="C81" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>4</v>
+      <c r="D81" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21">
-      <c r="A82">
+      <c r="A82" s="12">
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3007,8 +3007,8 @@
       <c r="C82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>4</v>
+      <c r="D82" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5599E9BF-846E-4820-9769-842E060ADEBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43A588-2F15-4ECF-9076-9C7784A84D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="21">
-      <c r="A83">
+      <c r="A83" s="15">
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3021,8 +3021,8 @@
       <c r="C83" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>4</v>
+      <c r="D83" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43A588-2F15-4ECF-9076-9C7784A84D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C712E3-3374-4672-90DA-0CA689EBE583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3026,7 +3026,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="21">
-      <c r="A84">
+      <c r="A84" s="12">
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -3035,8 +3035,8 @@
       <c r="C84" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>4</v>
+      <c r="D84" s="11" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C712E3-3374-4672-90DA-0CA689EBE583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BF358E-8660-487D-B01D-A7DC42B1C713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1523,7 +1523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1546,6 +1546,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1562,7 +1568,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1600,6 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1919,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3040,7 +3047,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="21">
-      <c r="A85">
+      <c r="A85" s="15">
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3068,7 +3075,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="21">
-      <c r="A87">
+      <c r="A87" s="17">
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BF358E-8660-487D-B01D-A7DC42B1C713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53C28B-DFA0-4A8C-8D93-CB40F81D2CEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1548,7 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C94" activeCellId="1" sqref="C89 C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3089,7 +3089,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="21">
-      <c r="A88">
+      <c r="A88" s="17">
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53C28B-DFA0-4A8C-8D93-CB40F81D2CEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C61234-F4E7-4650-8B96-4CDDE1B476CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>Program to generate all possible valid IP addresses from given  string.</t>
   </si>
   <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
     <t>Rearrange characters in a string such that no two adjacent are same</t>
   </si>
   <si>
@@ -1432,6 +1429,9 @@
   </si>
   <si>
     <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] Read Manachers Algo.. See downloaded Video </t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself. (Please see pep coding soln in youtube for clarity)</t>
   </si>
 </sst>
 </file>
@@ -1603,10 +1603,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C94" activeCellId="1" sqref="C89 C94"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1940,26 +1940,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
-      <c r="A1" s="16" t="s">
-        <v>460</v>
+      <c r="A1" s="17" t="s">
+        <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="C2" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1973,7 @@
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
@@ -1990,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2018,7 +2018,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2032,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2046,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2074,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2088,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2102,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2116,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2127,10 +2127,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2144,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2172,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2186,7 +2186,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2200,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2214,7 +2214,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2228,7 +2228,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2242,7 +2242,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2256,7 +2256,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2270,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2284,7 +2284,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2298,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2312,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2326,7 +2326,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2340,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2354,7 +2354,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2368,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2382,7 +2382,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2396,7 +2396,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2410,7 +2410,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2424,7 +2424,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2438,7 +2438,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2452,7 +2452,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2466,7 +2466,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2477,10 +2477,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2503,7 +2503,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2514,10 +2514,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2528,10 +2528,10 @@
         <v>40</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2545,7 +2545,7 @@
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2559,7 +2559,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
@@ -2584,10 +2584,10 @@
         <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2601,7 +2601,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
@@ -2615,7 +2615,7 @@
         <v>46</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
@@ -2629,7 +2629,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2651,7 +2651,7 @@
         <v>49</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2665,7 +2665,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2679,7 +2679,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2693,7 +2693,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2707,7 +2707,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
@@ -2721,7 +2721,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
@@ -2735,7 +2735,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
@@ -2746,10 +2746,10 @@
         <v>48</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
@@ -2763,7 +2763,7 @@
         <v>56</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
@@ -2777,7 +2777,7 @@
         <v>57</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
@@ -2791,7 +2791,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
@@ -2805,7 +2805,7 @@
         <v>59</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
@@ -2833,7 +2833,7 @@
         <v>61</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
@@ -2847,7 +2847,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
@@ -2861,7 +2861,7 @@
         <v>63</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
@@ -2875,7 +2875,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
@@ -2889,7 +2889,7 @@
         <v>65</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
@@ -2903,7 +2903,7 @@
         <v>66</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
@@ -2917,7 +2917,7 @@
         <v>67</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
@@ -2931,7 +2931,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
@@ -2945,7 +2945,7 @@
         <v>69</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
@@ -2959,7 +2959,7 @@
         <v>70</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
@@ -2973,7 +2973,7 @@
         <v>71</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
@@ -3001,7 +3001,7 @@
         <v>73</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21">
@@ -3015,7 +3015,7 @@
         <v>74</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="21">
@@ -3029,7 +3029,7 @@
         <v>75</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="21">
@@ -3043,7 +3043,7 @@
         <v>76</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="21">
@@ -3071,11 +3071,11 @@
         <v>78</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="21">
-      <c r="A87" s="17">
+      <c r="A87" s="16">
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3089,17 +3089,17 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="21">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="21">
@@ -3110,7 +3110,7 @@
         <v>48</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>4</v>
@@ -3124,7 +3124,7 @@
         <v>48</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>4</v>
@@ -3138,7 +3138,7 @@
         <v>48</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>4</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>4</v>
@@ -3166,7 +3166,7 @@
         <v>48</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>4</v>
@@ -3180,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>4</v>
@@ -3194,7 +3194,7 @@
         <v>48</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>4</v>
@@ -3208,7 +3208,7 @@
         <v>48</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>4</v>
@@ -3222,7 +3222,7 @@
         <v>48</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>48</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
@@ -3252,10 +3252,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>4</v>
@@ -3266,10 +3266,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>4</v>
@@ -3294,10 +3294,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>4</v>
@@ -3308,10 +3308,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>4</v>
@@ -3322,10 +3322,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
@@ -3336,10 +3336,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>4</v>
@@ -3350,10 +3350,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>4</v>
@@ -3364,10 +3364,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>4</v>
@@ -3378,10 +3378,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>4</v>
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>4</v>
@@ -3406,10 +3406,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3420,10 +3420,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3434,10 +3434,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3448,10 +3448,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3462,10 +3462,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3476,10 +3476,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3490,10 +3490,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3504,10 +3504,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3518,10 +3518,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3532,10 +3532,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3546,10 +3546,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3560,10 +3560,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3574,10 +3574,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3588,10 +3588,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3602,10 +3602,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3616,10 +3616,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3630,10 +3630,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
@@ -3644,10 +3644,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
@@ -3658,10 +3658,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
@@ -3672,10 +3672,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
@@ -3686,10 +3686,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
@@ -3700,10 +3700,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
@@ -3714,10 +3714,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
@@ -3728,10 +3728,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
@@ -3742,10 +3742,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
@@ -3760,10 +3760,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3774,10 +3774,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3788,10 +3788,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3802,10 +3802,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -3816,10 +3816,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
@@ -3830,10 +3830,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -3844,10 +3844,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -3858,10 +3858,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -3872,10 +3872,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -3886,10 +3886,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -3900,10 +3900,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -3914,10 +3914,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -3928,10 +3928,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -3942,10 +3942,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -3956,10 +3956,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -3970,10 +3970,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -3984,10 +3984,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -3998,10 +3998,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4012,10 +4012,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4026,10 +4026,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4040,10 +4040,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4054,10 +4054,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4068,10 +4068,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4082,10 +4082,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4096,10 +4096,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4110,10 +4110,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4124,10 +4124,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4138,10 +4138,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4152,10 +4152,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4166,10 +4166,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4180,10 +4180,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4194,10 +4194,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4208,10 +4208,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4222,10 +4222,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4236,10 +4236,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4250,10 +4250,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4268,10 +4268,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4282,10 +4282,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4296,10 +4296,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4310,10 +4310,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4324,10 +4324,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4338,10 +4338,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4352,10 +4352,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4380,10 +4380,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4394,10 +4394,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4408,10 +4408,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4422,10 +4422,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4436,10 +4436,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4450,10 +4450,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4464,10 +4464,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4478,10 +4478,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4492,10 +4492,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4506,10 +4506,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4520,10 +4520,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4534,10 +4534,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4548,10 +4548,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4562,10 +4562,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4576,10 +4576,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4590,10 +4590,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4604,10 +4604,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4618,10 +4618,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4632,10 +4632,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4646,10 +4646,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4660,10 +4660,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4674,10 +4674,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4688,10 +4688,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4702,10 +4702,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4716,10 +4716,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4730,10 +4730,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4744,10 +4744,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4768,10 +4768,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4782,10 +4782,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4796,10 +4796,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -4810,10 +4810,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -4824,10 +4824,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -4838,10 +4838,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -4852,10 +4852,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -4866,10 +4866,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -4880,10 +4880,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -4894,10 +4894,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -4908,10 +4908,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -4922,10 +4922,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -4936,10 +4936,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -4950,10 +4950,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -4964,10 +4964,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -4978,10 +4978,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -4992,10 +4992,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -5006,10 +5006,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5020,10 +5020,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5034,10 +5034,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5048,10 +5048,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5062,10 +5062,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5084,10 +5084,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5098,10 +5098,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5112,10 +5112,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5126,10 +5126,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5140,10 +5140,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5154,10 +5154,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5168,10 +5168,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5182,10 +5182,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5196,10 +5196,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5210,10 +5210,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5224,10 +5224,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5238,10 +5238,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5252,10 +5252,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5266,10 +5266,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5280,10 +5280,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5294,10 +5294,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5308,10 +5308,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5322,10 +5322,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5336,10 +5336,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5350,10 +5350,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5364,10 +5364,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5378,10 +5378,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5392,10 +5392,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5406,10 +5406,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5420,10 +5420,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5434,10 +5434,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5448,10 +5448,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5462,10 +5462,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5476,10 +5476,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5490,10 +5490,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5504,10 +5504,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5518,10 +5518,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5532,10 +5532,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5546,10 +5546,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5560,10 +5560,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5582,10 +5582,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5596,10 +5596,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5610,10 +5610,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5624,10 +5624,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5638,10 +5638,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5652,10 +5652,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5666,10 +5666,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5680,10 +5680,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5694,10 +5694,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5708,10 +5708,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5722,10 +5722,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5736,10 +5736,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5750,10 +5750,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5764,10 +5764,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5778,10 +5778,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5792,10 +5792,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -5806,10 +5806,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -5820,10 +5820,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -5834,10 +5834,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -5856,10 +5856,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -5870,10 +5870,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -5884,10 +5884,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -5898,10 +5898,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -5912,10 +5912,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -5926,10 +5926,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -5940,10 +5940,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -5954,10 +5954,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -5968,10 +5968,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -5982,10 +5982,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -5996,10 +5996,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6010,10 +6010,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6024,10 +6024,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6038,10 +6038,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6052,10 +6052,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6066,10 +6066,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6080,10 +6080,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6094,10 +6094,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6108,10 +6108,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6122,10 +6122,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6136,10 +6136,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6150,10 +6150,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6164,10 +6164,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6178,10 +6178,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6192,10 +6192,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6206,10 +6206,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6220,10 +6220,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6234,10 +6234,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6248,10 +6248,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6262,10 +6262,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6276,10 +6276,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6290,10 +6290,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6304,10 +6304,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6318,10 +6318,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6332,10 +6332,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6346,10 +6346,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6360,10 +6360,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6374,10 +6374,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6396,10 +6396,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6410,10 +6410,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6424,10 +6424,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6438,10 +6438,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6452,10 +6452,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6466,10 +6466,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6480,10 +6480,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6494,10 +6494,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6508,10 +6508,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6522,10 +6522,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6536,10 +6536,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6550,10 +6550,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6564,10 +6564,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6578,10 +6578,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6592,10 +6592,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6606,10 +6606,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6620,10 +6620,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6634,10 +6634,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6656,10 +6656,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6670,10 +6670,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6684,10 +6684,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6698,10 +6698,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6712,10 +6712,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6726,10 +6726,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6740,10 +6740,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6754,10 +6754,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6768,10 +6768,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6782,10 +6782,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6796,10 +6796,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -6810,10 +6810,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -6824,10 +6824,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -6838,10 +6838,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -6852,10 +6852,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -6866,10 +6866,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -6880,10 +6880,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -6894,10 +6894,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -6908,10 +6908,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -6922,10 +6922,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -6936,10 +6936,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -6950,10 +6950,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -6964,10 +6964,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -6978,10 +6978,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -6992,10 +6992,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -7006,10 +7006,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7020,10 +7020,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7034,10 +7034,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7048,10 +7048,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7062,10 +7062,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7076,10 +7076,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7090,10 +7090,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7104,10 +7104,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7118,10 +7118,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7132,10 +7132,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7146,10 +7146,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7160,10 +7160,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7174,10 +7174,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7188,10 +7188,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7202,10 +7202,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7216,10 +7216,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7230,10 +7230,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7244,10 +7244,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7258,10 +7258,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7280,10 +7280,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7294,10 +7294,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7308,10 +7308,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7322,10 +7322,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7336,10 +7336,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7350,10 +7350,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7372,10 +7372,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7386,10 +7386,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7400,10 +7400,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7414,10 +7414,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7428,10 +7428,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7442,10 +7442,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7456,10 +7456,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7470,10 +7470,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7484,10 +7484,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7498,10 +7498,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7512,10 +7512,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7526,10 +7526,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7540,10 +7540,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7554,10 +7554,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7568,10 +7568,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7582,10 +7582,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7596,10 +7596,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7610,10 +7610,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7624,10 +7624,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7638,10 +7638,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7652,10 +7652,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7666,10 +7666,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7680,10 +7680,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7694,10 +7694,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7708,10 +7708,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7722,10 +7722,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7736,10 +7736,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7750,10 +7750,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7764,10 +7764,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7778,10 +7778,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7792,10 +7792,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -7806,10 +7806,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -7820,10 +7820,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -7834,10 +7834,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -7848,10 +7848,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -7862,10 +7862,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -7876,10 +7876,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -7890,10 +7890,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -7904,10 +7904,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -7918,10 +7918,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -7932,10 +7932,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -7946,10 +7946,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -7960,10 +7960,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -7974,10 +7974,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -7988,10 +7988,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -8002,10 +8002,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8016,10 +8016,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8030,10 +8030,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8044,10 +8044,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8058,10 +8058,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8072,10 +8072,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8086,10 +8086,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8100,10 +8100,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8114,10 +8114,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8128,10 +8128,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8142,10 +8142,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8156,10 +8156,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8170,10 +8170,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8184,10 +8184,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8198,10 +8198,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8221,10 +8221,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8235,10 +8235,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8249,10 +8249,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8263,10 +8263,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8277,10 +8277,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8291,10 +8291,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8305,10 +8305,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8319,10 +8319,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8333,10 +8333,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8347,10 +8347,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8438,7 +8438,7 @@
     <hyperlink ref="C85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
     <hyperlink ref="C86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
     <hyperlink ref="C87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C88" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself." xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
     <hyperlink ref="C89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
     <hyperlink ref="C90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
     <hyperlink ref="C91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C61234-F4E7-4650-8B96-4CDDE1B476CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA6083-23EE-4C8C-B396-D7691C181A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3103,7 +3103,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="21">
-      <c r="A89">
+      <c r="A89" s="16">
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -3112,8 +3112,8 @@
       <c r="C89" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>4</v>
+      <c r="D89" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="21">
@@ -8438,375 +8438,375 @@
     <hyperlink ref="C85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
     <hyperlink ref="C86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
     <hyperlink ref="C87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="C88" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself." xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="C89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="C90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="C91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="C92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="C93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="C94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="C95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="C96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="C97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="C98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="C101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="C102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="C103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="C104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="C106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="C107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="C108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="C109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="C110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="C111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="C113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="C114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="C115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="C116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="C117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="C118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="C119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="C120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="C121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="C122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="C123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="C124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="C125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="C126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="C127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="C128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="C129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="C130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="C131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="C132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="C133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="C134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="C135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="C136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="C105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="C112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="C139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="C140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="C141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="C142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="C143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="C144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="C145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="C146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="C147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="C148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="C149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="C150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="C151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="C152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="C153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="C154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="C155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="C156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="C157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="C158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="C159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="C160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="C161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="C162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="C163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="C166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="C167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="C168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="C169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="C170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="C171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="C172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="C173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="C174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="C177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="C178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="C179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="C180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="C181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="C182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="C183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="C184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="C185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="C186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="C187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="C188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="C189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="C190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="C191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="C192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="C193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="C194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="C195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="C196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="C197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="C198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="C199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="C200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="C201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="C202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="C203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="C204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="C205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="C206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="C207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="C208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="C209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="C210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="C211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="C214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="C215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="C216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="C217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="C218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="C219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="C220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="C221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="C222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="C223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="C224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="C225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="C226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="C227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="C228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="C229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="C230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="C231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="C232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="C233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="C234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="C235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="C238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="C239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="C240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="C241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="C242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="C243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="C244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="C245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="C246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="C247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="C248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="C249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="C250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="C251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="C252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="C253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="C254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="C255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="C256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="C257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="C258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="C259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="C260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="C261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="C262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="C263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="C264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="C265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="C266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="C267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="C268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="C269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="C270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="C271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="C272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="C275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="C276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="C277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="C278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="C279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="C280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="C281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="C282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="C283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="C284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="C285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="C286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="C287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="C288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="C289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="C290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="C291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="C292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="C293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="C296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="C297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="C298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="C299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="C300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="C301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="C302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="C303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="C304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="C305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="C306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="C307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="C308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="C309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="C310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="C311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="C312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="C313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="C314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="C315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="C316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="C317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="C318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="C319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="C320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="C321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="C322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="C323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="C324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="C325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="C326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="C327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="C328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="C329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="C330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="C331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="C332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="C333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="C336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="C337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="C338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="C339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="C340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="C341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="C342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="C343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="C344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="C345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="C346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="C347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="C348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="C349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="C350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="C351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="C352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="C353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="C357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="C358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="C359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="C360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="C361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="C362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="C363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="C364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="C365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="C366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="C367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="C368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="C369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="C370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="C371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="C372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="C373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="C374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="C375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="C376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="C377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="C378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="C379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="C380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="C381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="C382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="C383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="C384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="C385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="C386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="C387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="C388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="C389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="C390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="C391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="C392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="C393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="C394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="C396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="C395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="C397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="C398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="C399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="C402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="C403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="C404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="C405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="C406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="C407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="C410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="C411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="C412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="C413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="C414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="C415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="C416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="C417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="C418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="C419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="C420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="C421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="C422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="C423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="C424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="C425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="C426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="C427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="C428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="C429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="C430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="C431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="C432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="C433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="C434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="C435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="C436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="C437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="C438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="C439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="C440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="C441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="C442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="C443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="C444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="C445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="C446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="C447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="C448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="C449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="C451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="C450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="C452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="C453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="C454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="C455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="C456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="C457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="C458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="C459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="C460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="C461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="C462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="C469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="C468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="C467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="C466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="C465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="C464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="C463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="C472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="C473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="C474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="C475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="C476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="C477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="C478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="C481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="C479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="C480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="C356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="C2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C89" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="C90" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="C91" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="C92" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="C93" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="C94" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="C95" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="C96" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="C97" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="C98" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="C101" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="C102" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="C103" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="C104" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="C106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="C107" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="C108" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="C109" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="C110" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="C111" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="C113" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="C114" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="C115" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="C116" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="C117" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="C118" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="C119" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="C120" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="C121" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="C122" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="C123" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="C124" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="C125" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="C126" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="C127" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="C128" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="C129" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="C130" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="C131" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="C132" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="C133" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="C134" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="C135" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="C136" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="C105" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="C112" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="C139" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="C140" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="C141" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="C142" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="C143" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="C144" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="C145" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="C146" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="C147" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="C148" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="C149" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="C150" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="C151" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="C152" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="C153" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="C154" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="C155" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="C156" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="C157" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="C158" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="C159" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="C160" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="C161" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="C162" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="C163" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="C166" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="C167" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="C168" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="C169" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="C170" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="C171" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="C172" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="C173" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="C174" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="C177" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="C178" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="C179" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="C180" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="C181" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="C182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="C183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="C184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="C185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="C186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="C187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="C188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="C189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="C190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="C191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="C192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="C193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="C194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="C195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="C196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="C197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="C198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="C199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="C200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="C201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="C202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="C203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="C204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="C205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="C206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="C207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="C208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="C209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="C210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="C211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="C214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="C215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="C216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="C217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="C218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="C219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="C220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="C221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="C222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="C223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="C224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="C225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="C226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="C227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="C228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="C229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="C230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="C231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="C232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="C233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="C234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="C235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="C238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="C239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="C240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="C241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="C242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="C243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="C244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="C245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="C246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="C247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="C248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="C249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="C250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="C251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="C252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="C253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="C254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="C255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="C256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="C257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="C258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="C259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="C260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="C261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="C262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="C263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="C264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="C265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="C266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="C267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="C268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="C269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="C270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="C271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="C272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="C275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="C276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="C277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="C278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="C279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="C280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="C281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="C282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="C283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="C284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="C285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="C286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="C287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="C288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="C289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="C290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="C291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="C292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="C293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="C296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="C297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="C298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="C299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="C300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="C301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="C302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="C303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="C304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="C305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="C306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="C307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="C308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="C309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="C310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="C311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="C312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="C313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="C314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="C315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="C316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="C317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="C318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="C319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="C320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="C321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="C322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="C323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="C324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="C325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="C326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="C327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="C328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="C329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="C330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="C331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="C332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="C333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="C336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="C337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="C338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="C339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="C340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="C341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="C342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="C343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="C344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="C345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="C346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="C347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="C348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="C349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="C350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="C351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="C352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="C353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="C357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="C358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="C359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="C360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="C361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="C362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="C363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="C364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="C365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="C366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="C367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="C368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="C369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="C370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="C371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="C372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="C373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="C374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="C375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="C376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="C377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="C378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="C379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="C380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="C381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="C382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="C383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="C384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="C385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="C386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="C387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="C388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="C389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="C390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="C391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="C392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="C393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="C394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="C396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="C395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="C397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="C398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="C399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="C402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="C403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="C404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="C405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="C406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="C407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="C410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="C411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="C412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="C413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="C414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="C415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="C416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="C417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="C418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="C419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="C420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="C421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="C422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="C423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="C424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="C425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="C426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="C427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="C428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="C429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="C430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="C431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="C432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="C433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="C434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="C435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="C436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="C437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="C438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="C439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="C440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="C441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="C442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="C443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="C444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="C445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="C446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="C447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="C448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="C449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="C451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="C450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="C452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="C453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="C454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="C455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="C456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="C457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="C458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="C459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="C460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="C461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="C462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="C469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="C468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="C467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="C466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="C465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="C464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="C463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="C472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="C473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="C474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="C475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="C476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="C477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="C478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="C481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="C479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="C356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="C2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C88" r:id="rId446" display="Write a program tofind the smallest window that contains all characters of string itself." xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId447"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA6083-23EE-4C8C-B396-D7691C181A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B135F1A5-EEB7-466C-A7D9-BAE682C80009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3056,8 +3056,8 @@
       <c r="C85" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>4</v>
+      <c r="D85" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B135F1A5-EEB7-466C-A7D9-BAE682C80009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148ED73-4916-4FBD-9487-74831249E478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E148ED73-4916-4FBD-9487-74831249E478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C86AC2-5199-4290-994E-1165E8604FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3117,7 +3117,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="21">
-      <c r="A90">
+      <c r="A90" s="16">
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -3126,8 +3126,8 @@
       <c r="C90" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>4</v>
+      <c r="D90" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C86AC2-5199-4290-994E-1165E8604FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF94916-D2F0-4427-B9D3-4477362C2113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1927,7 +1927,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3131,7 +3131,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="21">
-      <c r="A91">
+      <c r="A91" s="16">
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3140,8 +3140,8 @@
       <c r="C91" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>4</v>
+      <c r="D91" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF94916-D2F0-4427-B9D3-4477362C2113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050422A9-443E-4C72-89EC-F554DE0656F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Write a program tofind the smallest window that contains all characters of string itself. (Please see pep coding soln in youtube for clarity)</t>
+  </si>
+  <si>
+    <t>Date to be completed by</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,6 +1610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1924,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1935,30 +1939,33 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="159.8984375" customWidth="1"/>
-    <col min="4" max="4" width="42.3984375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6">
+    <row r="1" spans="1:5" ht="24.6">
       <c r="A1" s="17" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="17"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="17"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1970,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>461</v>
@@ -1979,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21">
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -2049,7 +2056,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21">
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="12">
         <v>6</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -2077,7 +2084,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -2105,7 +2112,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -2119,7 +2126,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="21">
+    <row r="81" spans="1:5" ht="21">
       <c r="A81" s="12">
         <v>72</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="21">
+    <row r="82" spans="1:5" ht="21">
       <c r="A82" s="12">
         <v>73</v>
       </c>
@@ -3018,7 +3025,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="21">
+    <row r="83" spans="1:5" ht="21">
       <c r="A83" s="15">
         <v>74</v>
       </c>
@@ -3032,7 +3039,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="21">
+    <row r="84" spans="1:5" ht="21">
       <c r="A84" s="12">
         <v>75</v>
       </c>
@@ -3046,7 +3053,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21">
+    <row r="85" spans="1:5" ht="21">
       <c r="A85" s="15">
         <v>76</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="21">
+    <row r="86" spans="1:5" ht="21">
       <c r="A86" s="15">
         <v>77</v>
       </c>
@@ -3074,7 +3081,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="21">
+    <row r="87" spans="1:5" ht="21">
       <c r="A87" s="16">
         <v>78</v>
       </c>
@@ -3088,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="21">
+    <row r="88" spans="1:5" ht="21">
       <c r="A88" s="16">
         <v>79</v>
       </c>
@@ -3102,7 +3109,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="21">
+    <row r="89" spans="1:5" ht="21">
       <c r="A89" s="16">
         <v>80</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="21">
+    <row r="90" spans="1:5" ht="21">
       <c r="A90" s="16">
         <v>81</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="21">
+    <row r="91" spans="1:5" ht="21">
       <c r="A91" s="16">
         <v>82</v>
       </c>
@@ -3143,8 +3150,11 @@
       <c r="D91" s="11" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="21">
+      <c r="E91" s="18">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="21">
       <c r="A92">
         <v>83</v>
       </c>
@@ -3157,8 +3167,11 @@
       <c r="D92" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="21">
+      <c r="E92" s="18">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="21">
       <c r="A93">
         <v>84</v>
       </c>
@@ -3171,8 +3184,11 @@
       <c r="D93" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="21">
+      <c r="E93" s="18">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="21">
       <c r="A94">
         <v>85</v>
       </c>
@@ -3185,8 +3201,11 @@
       <c r="D94" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="21">
+      <c r="E94" s="18">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="21">
       <c r="A95">
         <v>86</v>
       </c>
@@ -3199,8 +3218,11 @@
       <c r="D95" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="21">
+      <c r="E95" s="18">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="21">
       <c r="A96">
         <v>87</v>
       </c>
@@ -3213,8 +3235,11 @@
       <c r="D96" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="21">
+      <c r="E96" s="18">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="21">
       <c r="A97">
         <v>88</v>
       </c>
@@ -3227,8 +3252,11 @@
       <c r="D97" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="21">
+      <c r="E97" s="18">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="21">
       <c r="A98">
         <v>89</v>
       </c>
@@ -3241,13 +3269,16 @@
       <c r="D98" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="21">
+      <c r="E98" s="18">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="21">
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100" s="10"/>
     </row>
-    <row r="101" spans="1:4" ht="21">
+    <row r="101" spans="1:5" ht="21">
       <c r="A101">
         <v>90</v>
       </c>
@@ -3261,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="21">
+    <row r="102" spans="1:5" ht="21">
       <c r="A102">
         <v>91</v>
       </c>
@@ -3275,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="21">
+    <row r="103" spans="1:5" ht="21">
       <c r="A103">
         <v>92</v>
       </c>
@@ -3289,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="21">
+    <row r="104" spans="1:5" ht="21">
       <c r="A104">
         <v>93</v>
       </c>
@@ -3303,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="21">
+    <row r="105" spans="1:5" ht="21">
       <c r="A105">
         <v>94</v>
       </c>
@@ -3317,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="21">
+    <row r="106" spans="1:5" ht="21">
       <c r="A106">
         <v>95</v>
       </c>
@@ -3331,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="21">
+    <row r="107" spans="1:5" ht="21">
       <c r="A107">
         <v>96</v>
       </c>
@@ -3345,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="21">
+    <row r="108" spans="1:5" ht="21">
       <c r="A108">
         <v>97</v>
       </c>
@@ -3359,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="21">
+    <row r="109" spans="1:5" ht="21">
       <c r="A109">
         <v>98</v>
       </c>
@@ -3373,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="21">
+    <row r="110" spans="1:5" ht="21">
       <c r="A110">
         <v>99</v>
       </c>
@@ -3387,7 +3418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="21">
+    <row r="111" spans="1:5" ht="21">
       <c r="A111">
         <v>100</v>
       </c>
@@ -3401,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="21">
+    <row r="112" spans="1:5" ht="21">
       <c r="A112">
         <v>101</v>
       </c>
@@ -3639,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="21">
+    <row r="129" spans="1:5" ht="21">
       <c r="A129">
         <v>118</v>
       </c>
@@ -3653,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="21">
+    <row r="130" spans="1:5" ht="21">
       <c r="A130">
         <v>119</v>
       </c>
@@ -3667,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="21">
+    <row r="131" spans="1:5" ht="21">
       <c r="A131">
         <v>120</v>
       </c>
@@ -3681,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="21">
+    <row r="132" spans="1:5" ht="21">
       <c r="A132">
         <v>121</v>
       </c>
@@ -3695,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="21">
+    <row r="133" spans="1:5" ht="21">
       <c r="A133">
         <v>122</v>
       </c>
@@ -3709,7 +3740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="21">
+    <row r="134" spans="1:5" ht="21">
       <c r="A134">
         <v>123</v>
       </c>
@@ -3723,7 +3754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="21">
+    <row r="135" spans="1:5" ht="21">
       <c r="A135">
         <v>124</v>
       </c>
@@ -3737,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="21">
+    <row r="136" spans="1:5" ht="21">
       <c r="A136">
         <v>125</v>
       </c>
@@ -3751,11 +3782,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="21">
+    <row r="138" spans="1:5" ht="21">
       <c r="C138" s="5"/>
       <c r="D138" s="10"/>
     </row>
-    <row r="139" spans="1:4" ht="21">
+    <row r="139" spans="1:5" ht="21">
       <c r="A139">
         <v>126</v>
       </c>
@@ -3768,8 +3799,11 @@
       <c r="D139" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="21">
+      <c r="E139" s="18">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="21">
       <c r="A140">
         <v>127</v>
       </c>
@@ -3782,8 +3816,11 @@
       <c r="D140" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="21">
+      <c r="E140" s="18">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21">
       <c r="A141">
         <v>128</v>
       </c>
@@ -3796,8 +3833,11 @@
       <c r="D141" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="21">
+      <c r="E141" s="18">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21">
       <c r="A142">
         <v>129</v>
       </c>
@@ -3810,8 +3850,11 @@
       <c r="D142" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
+      <c r="E142" s="18">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="21">
       <c r="A143">
         <v>130</v>
       </c>
@@ -3825,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="21">
+    <row r="144" spans="1:5" ht="21">
       <c r="A144">
         <v>131</v>
       </c>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050422A9-443E-4C72-89EC-F554DE0656F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06029CBB-3EA2-4F03-A94C-DFD0A2E98038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1607,10 +1607,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1944,7 +1944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1955,18 +1955,18 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="D91" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="17">
         <v>44323</v>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       <c r="D92" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="17">
         <v>44324</v>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       <c r="D93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="17">
         <v>44324</v>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       <c r="D94" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="17">
         <v>44324</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="D95" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="17">
         <v>44325</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       <c r="D96" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="17">
         <v>44325</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="D97" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="17">
         <v>44325</v>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       <c r="D98" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="17">
         <v>44326</v>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       <c r="D139" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>44326</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="D140" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="17">
         <v>44326</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="D141" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="17">
         <v>44327</v>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="D142" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="17">
         <v>44327</v>
       </c>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06029CBB-3EA2-4F03-A94C-DFD0A2E98038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949C426-42AF-4317-B772-0E1BA202FA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>Date to be completed by</t>
+  </si>
+  <si>
+    <t>VERY VERY TOUGH AND MOST IMP … BAAAP of all Sliding Window Question)</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +1558,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1571,7 +1580,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,6 +1620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1930,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3150,12 +3160,10 @@
       <c r="D91" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E91" s="17">
-        <v>44323</v>
-      </c>
+      <c r="E91" s="17"/>
     </row>
     <row r="92" spans="1:5" ht="21">
-      <c r="A92">
+      <c r="A92" s="19">
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3164,11 +3172,11 @@
       <c r="C92" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="17">
-        <v>44324</v>
+      <c r="D92" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="21">
@@ -3184,9 +3192,7 @@
       <c r="D93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="17">
-        <v>44324</v>
-      </c>
+      <c r="E93" s="17"/>
     </row>
     <row r="94" spans="1:5" ht="21">
       <c r="A94">
@@ -3201,9 +3207,7 @@
       <c r="D94" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="17">
-        <v>44324</v>
-      </c>
+      <c r="E94" s="17"/>
     </row>
     <row r="95" spans="1:5" ht="21">
       <c r="A95">
@@ -3218,9 +3222,7 @@
       <c r="D95" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="17">
-        <v>44325</v>
-      </c>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" spans="1:5" ht="21">
       <c r="A96">
@@ -3235,9 +3237,7 @@
       <c r="D96" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="17">
-        <v>44325</v>
-      </c>
+      <c r="E96" s="17"/>
     </row>
     <row r="97" spans="1:5" ht="21">
       <c r="A97">
@@ -3252,9 +3252,7 @@
       <c r="D97" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="17">
-        <v>44325</v>
-      </c>
+      <c r="E97" s="17"/>
     </row>
     <row r="98" spans="1:5" ht="21">
       <c r="A98">
@@ -3269,9 +3267,7 @@
       <c r="D98" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="17">
-        <v>44326</v>
-      </c>
+      <c r="E98" s="17"/>
     </row>
     <row r="100" spans="1:5" ht="21">
       <c r="B100" s="6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949C426-42AF-4317-B772-0E1BA202FA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9246324C-021C-4CDB-877D-1D8CAE1D6F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1617,10 +1617,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1954,7 +1954,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1965,18 +1965,18 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="E91" s="17"/>
     </row>
     <row r="92" spans="1:5" ht="21">
-      <c r="A92" s="19">
+      <c r="A92" s="18">
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="21">
-      <c r="A93">
+      <c r="A93" s="12">
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -3189,8 +3189,8 @@
       <c r="C93" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>4</v>
+      <c r="D93" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="E93" s="17"/>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9246324C-021C-4CDB-877D-1D8CAE1D6F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9892DFA-2FD1-4CFF-A477-F6F9E1ABED07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,12 +1554,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1580,7 +1574,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1615,9 +1609,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1940,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1954,7 +1947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1965,18 +1958,18 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19"/>
+      <c r="A2" s="18"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3092,7 +3085,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="21">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3106,7 +3099,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="21">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -3120,7 +3113,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="21">
-      <c r="A89" s="16">
+      <c r="A89" s="15">
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -3134,7 +3127,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="21">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -3148,7 +3141,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="21">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3160,10 +3153,10 @@
       <c r="D91" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E91" s="17"/>
+      <c r="E91" s="16"/>
     </row>
     <row r="92" spans="1:5" ht="21">
-      <c r="A92" s="18">
+      <c r="A92" s="17">
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3175,7 +3168,7 @@
       <c r="D92" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="16" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3192,10 +3185,10 @@
       <c r="D93" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E93" s="17"/>
+      <c r="E93" s="16"/>
     </row>
     <row r="94" spans="1:5" ht="21">
-      <c r="A94">
+      <c r="A94" s="15">
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3204,10 +3197,10 @@
       <c r="C94" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="17"/>
+      <c r="D94" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E94" s="16"/>
     </row>
     <row r="95" spans="1:5" ht="21">
       <c r="A95">
@@ -3222,7 +3215,7 @@
       <c r="D95" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="17"/>
+      <c r="E95" s="16"/>
     </row>
     <row r="96" spans="1:5" ht="21">
       <c r="A96">
@@ -3237,7 +3230,7 @@
       <c r="D96" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E96" s="17"/>
+      <c r="E96" s="16"/>
     </row>
     <row r="97" spans="1:5" ht="21">
       <c r="A97">
@@ -3252,7 +3245,7 @@
       <c r="D97" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="17"/>
+      <c r="E97" s="16"/>
     </row>
     <row r="98" spans="1:5" ht="21">
       <c r="A98">
@@ -3267,7 +3260,7 @@
       <c r="D98" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="17"/>
+      <c r="E98" s="16"/>
     </row>
     <row r="100" spans="1:5" ht="21">
       <c r="B100" s="6"/>
@@ -3795,7 +3788,7 @@
       <c r="D139" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E139" s="17">
+      <c r="E139" s="16">
         <v>44326</v>
       </c>
     </row>
@@ -3812,7 +3805,7 @@
       <c r="D140" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="17">
+      <c r="E140" s="16">
         <v>44326</v>
       </c>
     </row>
@@ -3829,7 +3822,7 @@
       <c r="D141" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="17">
+      <c r="E141" s="16">
         <v>44327</v>
       </c>
     </row>
@@ -3846,7 +3839,7 @@
       <c r="D142" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E142" s="17">
+      <c r="E142" s="16">
         <v>44327</v>
       </c>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9892DFA-2FD1-4CFF-A477-F6F9E1ABED07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97115247-6EDE-4869-8A83-A5234BC2CD4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1934,7 +1934,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97115247-6EDE-4869-8A83-A5234BC2CD4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178FF2C-61B1-466E-A74F-7806928E3D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1933,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3203,7 +3203,7 @@
       <c r="E94" s="16"/>
     </row>
     <row r="95" spans="1:5" ht="21">
-      <c r="A95">
+      <c r="A95" s="12">
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -3212,8 +3212,8 @@
       <c r="C95" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>4</v>
+      <c r="D95" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="E95" s="16"/>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178FF2C-61B1-466E-A74F-7806928E3D40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEB5C9-8A09-45D4-9E64-67E58FD5370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1933,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3218,7 +3218,7 @@
       <c r="E95" s="16"/>
     </row>
     <row r="96" spans="1:5" ht="21">
-      <c r="A96">
+      <c r="A96" s="15">
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3227,8 +3227,8 @@
       <c r="C96" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>4</v>
+      <c r="D96" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="E96" s="16"/>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEB5C9-8A09-45D4-9E64-67E58FD5370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B33287-F482-452F-8C01-005FF6126F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1934,7 +1934,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3233,7 +3233,7 @@
       <c r="E96" s="16"/>
     </row>
     <row r="97" spans="1:5" ht="21">
-      <c r="A97">
+      <c r="A97" s="15">
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3242,8 +3242,8 @@
       <c r="C97" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>4</v>
+      <c r="D97" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="E97" s="16"/>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B33287-F482-452F-8C01-005FF6126F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2BBB7-1FA4-4B05-902A-ECD996124059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1434,17 +1434,20 @@
     <t>Write a program tofind the smallest window that contains all characters of string itself. (Please see pep coding soln in youtube for clarity)</t>
   </si>
   <si>
-    <t>Date to be completed by</t>
-  </si>
-  <si>
     <t>VERY VERY TOUGH AND MOST IMP … BAAAP of all Sliding Window Question)</t>
+  </si>
+  <si>
+    <t>Didn't get how to do</t>
+  </si>
+  <si>
+    <t>DATE REVISED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1528,8 +1531,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,8 +1575,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1567,14 +1594,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,13 +1655,19 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1933,43 +1983,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="159.8984375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" style="9" customWidth="1"/>
     <col min="5" max="5" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>469</v>
+      <c r="E1" s="20" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2002,6 +2052,9 @@
       <c r="D6" s="11" t="s">
         <v>458</v>
       </c>
+      <c r="E6" s="16">
+        <v>44349</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21">
       <c r="A7" s="12">
@@ -2015,6 +2068,9 @@
       </c>
       <c r="D7" s="11" t="s">
         <v>458</v>
+      </c>
+      <c r="E7" s="16">
+        <v>44349</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21">
@@ -3169,7 +3225,7 @@
         <v>458</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="21">
@@ -3248,7 +3304,7 @@
       <c r="E97" s="16"/>
     </row>
     <row r="98" spans="1:5" ht="21">
-      <c r="A98">
+      <c r="A98" s="18">
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3260,7 +3316,9 @@
       <c r="D98" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="16"/>
+      <c r="E98" s="16" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="21">
       <c r="B100" s="6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2BBB7-1FA4-4B05-902A-ECD996124059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38637F27-FC33-4B3E-8CF5-20EB1DBBF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t>DATE REVISED</t>
+  </si>
+  <si>
+    <t>Easy q… Think next time</t>
   </si>
 </sst>
 </file>
@@ -1656,10 +1659,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1997,29 +2000,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19"/>
+      <c r="A2" s="20"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="21">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3320,13 +3323,16 @@
         <v>470</v>
       </c>
     </row>
+    <row r="99" spans="1:5">
+      <c r="D99"/>
+    </row>
     <row r="100" spans="1:5" ht="21">
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="10"/>
+      <c r="D100"/>
     </row>
     <row r="101" spans="1:5" ht="21">
-      <c r="A101">
+      <c r="A101" s="15">
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3335,8 +3341,11 @@
       <c r="C101" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>4</v>
+      <c r="D101" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E101" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38637F27-FC33-4B3E-8CF5-20EB1DBBF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF63AEE-B2D3-4336-9BE7-0CEED4B6A079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2089,6 +2089,9 @@
       <c r="D8" s="11" t="s">
         <v>458</v>
       </c>
+      <c r="E8" s="16">
+        <v>44351</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="21">
       <c r="A9" s="12">
@@ -2119,7 +2122,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="21">
-      <c r="A11" s="12">
+      <c r="A11" s="15">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF63AEE-B2D3-4336-9BE7-0CEED4B6A079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A199F39-FD20-4B4D-8A17-AB70B8999FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3352,7 +3352,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="21">
-      <c r="A102">
+      <c r="A102" s="12">
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -3361,8 +3361,8 @@
       <c r="C102" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>4</v>
+      <c r="D102" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A199F39-FD20-4B4D-8A17-AB70B8999FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95725B6-4662-40CA-BFF5-2A93872551CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>Easy q… Think next time</t>
+  </si>
+  <si>
+    <t>Did this Medium level difficulty q on my own and received 100% faster soln… I am sooooo happy now</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3366,7 +3369,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="21">
-      <c r="A103">
+      <c r="A103" s="12">
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -3375,8 +3378,11 @@
       <c r="C103" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>4</v>
+      <c r="D103" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E103" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95725B6-4662-40CA-BFF5-2A93872551CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D0BD12-3D91-4D12-AD8E-4156EC0C9946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3386,7 +3386,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="21">
-      <c r="A104">
+      <c r="A104" s="12">
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -3395,8 +3395,8 @@
       <c r="C104" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>4</v>
+      <c r="D104" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D0BD12-3D91-4D12-AD8E-4156EC0C9946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343539B4-8DAE-4820-B65C-7D4F01C10B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3428,7 +3428,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="21">
-      <c r="A107">
+      <c r="A107" s="15">
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343539B4-8DAE-4820-B65C-7D4F01C10B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8AA123-1CB7-46A0-8CDF-BC279C8BE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" zoomScale="76" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="91" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3437,8 +3437,9 @@
       <c r="C107" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>4</v>
+      <c r="D107" s="10" t="str">
+        <f>+C93</f>
+        <v>Recursively remove all adjacent duplicates</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8AA123-1CB7-46A0-8CDF-BC279C8BE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5BBBB-08F5-49C9-B859-A2934DC4BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="91" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2108,6 +2108,9 @@
       </c>
       <c r="D9" s="11" t="s">
         <v>458</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44363</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5BBBB-08F5-49C9-B859-A2934DC4BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB7535-1316-41D3-8A66-D3B861183627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1428,34 +1428,53 @@
     <t>Find a specific pair in matrix   (Read the Editorial in Gfg)</t>
   </si>
   <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring] Read Manachers Algo.. See downloaded Video </t>
-  </si>
-  <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself. (Please see pep coding soln in youtube for clarity)</t>
-  </si>
-  <si>
     <t>VERY VERY TOUGH AND MOST IMP … BAAAP of all Sliding Window Question)</t>
   </si>
   <si>
     <t>Didn't get how to do</t>
   </si>
   <si>
-    <t>DATE REVISED</t>
-  </si>
-  <si>
     <t>Easy q… Think next time</t>
   </si>
   <si>
     <t>Did this Medium level difficulty q on my own and received 100% faster soln… I am sooooo happy now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Question. Took 3days. See note copy for detailed implementation </t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Date Revised</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Please see pep coding soln in youtube for clarity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the Longest palindromic Substring. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Manachers Algo.. See downloaded Video </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1552,7 +1571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1591,6 +1610,12 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1618,55 +1643,59 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1987,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:E481"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1999,10 +2028,10 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="159.8984375" customWidth="1"/>
     <col min="4" max="4" width="23.296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.09765625" customWidth="1"/>
+    <col min="5" max="5" width="99.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.6">
+    <row r="1" spans="1:6" ht="24.6">
       <c r="A1" s="20" t="s">
         <v>459</v>
       </c>
@@ -2010,21 +2039,24 @@
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>472</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="20"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:5" ht="21">
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2036,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>461</v>
@@ -2045,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21">
+    <row r="6" spans="1:6" ht="21">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -2058,11 +2090,12 @@
       <c r="D6" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
         <v>44349</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21">
+    <row r="7" spans="1:6" ht="21">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -2075,11 +2108,12 @@
       <c r="D7" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
         <v>44349</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21">
+    <row r="8" spans="1:6" ht="21">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -2092,11 +2126,12 @@
       <c r="D8" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
         <v>44351</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21">
+    <row r="9" spans="1:6" ht="21">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -2109,11 +2144,12 @@
       <c r="D9" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>44363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21">
+    <row r="10" spans="1:6" ht="21">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -2127,7 +2163,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21">
+    <row r="11" spans="1:6" ht="21">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -2141,7 +2177,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21">
+    <row r="12" spans="1:6" ht="21">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -2155,7 +2191,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21">
+    <row r="13" spans="1:6" ht="21">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -2169,7 +2205,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21">
+    <row r="14" spans="1:6" ht="21">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -2183,7 +2219,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21">
+    <row r="15" spans="1:6" ht="21">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -2197,7 +2233,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21">
+    <row r="16" spans="1:6" ht="21">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -2435,7 +2471,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:5" ht="21">
       <c r="A33" s="12">
         <v>28</v>
       </c>
@@ -2449,7 +2485,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21">
+    <row r="34" spans="1:5" ht="21">
       <c r="A34" s="15">
         <v>29</v>
       </c>
@@ -2463,7 +2499,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21">
+    <row r="35" spans="1:5" ht="21">
       <c r="A35" s="12">
         <v>30</v>
       </c>
@@ -2477,7 +2513,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21">
+    <row r="36" spans="1:5" ht="21">
       <c r="A36" s="12">
         <v>31</v>
       </c>
@@ -2491,7 +2527,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21">
+    <row r="37" spans="1:5" ht="21">
       <c r="A37" s="12">
         <v>32</v>
       </c>
@@ -2505,7 +2541,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21">
+    <row r="38" spans="1:5" ht="21">
       <c r="A38" s="15">
         <v>33</v>
       </c>
@@ -2519,7 +2555,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21">
+    <row r="39" spans="1:5" ht="21">
       <c r="A39" s="12">
         <v>34</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21">
+    <row r="40" spans="1:5" ht="21">
       <c r="A40" s="12">
         <v>35</v>
       </c>
@@ -2547,7 +2583,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21">
+    <row r="41" spans="1:5" ht="21">
       <c r="A41" s="15">
         <v>36</v>
       </c>
@@ -2558,19 +2594,22 @@
         <v>462</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21">
+    <row r="42" spans="1:5" ht="21">
       <c r="C42" s="5"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4" ht="21">
+    <row r="43" spans="1:5" ht="21">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:4" ht="21">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="15">
         <v>37</v>
       </c>
@@ -2584,7 +2623,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21">
+    <row r="45" spans="1:5" ht="21">
       <c r="A45" s="12">
         <v>38</v>
       </c>
@@ -2598,7 +2637,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21">
+    <row r="46" spans="1:5" ht="21">
       <c r="A46" s="15">
         <v>39</v>
       </c>
@@ -2612,7 +2651,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21">
+    <row r="47" spans="1:5" ht="21">
       <c r="A47" s="15">
         <v>40</v>
       </c>
@@ -2626,7 +2665,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21">
+    <row r="48" spans="1:5" ht="21">
       <c r="A48" s="12">
         <v>41</v>
       </c>
@@ -2640,7 +2679,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21">
+    <row r="49" spans="1:5" ht="21">
       <c r="A49" s="15">
         <v>42</v>
       </c>
@@ -2654,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="21">
+    <row r="50" spans="1:5" ht="21">
       <c r="A50" s="15">
         <v>43</v>
       </c>
@@ -2668,7 +2707,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21">
+    <row r="51" spans="1:5" ht="21">
       <c r="A51" s="12">
         <v>44</v>
       </c>
@@ -2682,7 +2721,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="21">
+    <row r="52" spans="1:5" ht="21">
       <c r="A52" s="12">
         <v>45</v>
       </c>
@@ -2696,7 +2735,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="21">
+    <row r="53" spans="1:5" ht="21">
       <c r="A53" s="12">
         <v>46</v>
       </c>
@@ -2710,15 +2749,15 @@
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="D54"/>
     </row>
-    <row r="55" spans="1:4" ht="21">
+    <row r="55" spans="1:5" ht="21">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="D55"/>
     </row>
-    <row r="56" spans="1:4" ht="21">
+    <row r="56" spans="1:5" ht="21">
       <c r="A56" s="12">
         <v>47</v>
       </c>
@@ -2732,7 +2771,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="21">
+    <row r="57" spans="1:5" ht="21">
       <c r="A57" s="12">
         <v>48</v>
       </c>
@@ -2746,7 +2785,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="21">
+    <row r="58" spans="1:5" ht="21">
       <c r="A58" s="12">
         <v>49</v>
       </c>
@@ -2760,7 +2799,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="21">
+    <row r="59" spans="1:5" ht="21">
       <c r="A59" s="12">
         <v>50</v>
       </c>
@@ -2774,7 +2813,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21">
+    <row r="60" spans="1:5" ht="21">
       <c r="A60" s="12">
         <v>51</v>
       </c>
@@ -2788,7 +2827,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="21">
+    <row r="61" spans="1:5" ht="21">
       <c r="A61" s="12">
         <v>52</v>
       </c>
@@ -2802,7 +2841,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="21">
+    <row r="62" spans="1:5" ht="21">
       <c r="A62" s="12">
         <v>53</v>
       </c>
@@ -2816,7 +2855,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="21">
+    <row r="63" spans="1:5" ht="21">
       <c r="A63" s="15">
         <v>54</v>
       </c>
@@ -2824,13 +2863,16 @@
         <v>48</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="21">
+      <c r="E63" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21">
       <c r="A64" s="15">
         <v>55</v>
       </c>
@@ -3174,10 +3216,13 @@
         <v>48</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>458</v>
+      </c>
+      <c r="E88" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="21">
@@ -3237,7 +3282,7 @@
         <v>458</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="21">
@@ -3329,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3354,7 +3399,7 @@
         <v>458</v>
       </c>
       <c r="E101" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="21">
@@ -3385,7 +3430,7 @@
         <v>458</v>
       </c>
       <c r="E103" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="21">
@@ -3440,9 +3485,11 @@
       <c r="C107" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="10" t="str">
-        <f>+C93</f>
-        <v>Recursively remove all adjacent duplicates</v>
+      <c r="D107" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E107" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="21">
@@ -8918,7 +8965,7 @@
     <hyperlink ref="C480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="C356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="C2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="C88" r:id="rId446" display="Write a program tofind the smallest window that contains all characters of string itself." xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="C88" r:id="rId446" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId447"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB7535-1316-41D3-8A66-D3B861183627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E432F-7413-4D33-8250-CD4921E5CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="21">
-      <c r="A105">
+      <c r="A105" s="12">
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -3457,8 +3457,8 @@
       <c r="C105" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D105" s="10" t="s">
-        <v>4</v>
+      <c r="D105" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E432F-7413-4D33-8250-CD4921E5CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F387D1-31B1-4E9C-A709-9EE48C27EA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1690,12 +1690,12 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2032,7 +2032,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2041,23 +2041,23 @@
       <c r="E1" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20"/>
+      <c r="A2" s="22"/>
       <c r="C2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="21">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2175,6 +2175,9 @@
       </c>
       <c r="D11" s="11" t="s">
         <v>458</v>
+      </c>
+      <c r="F11" s="16">
+        <v>44364</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21">
@@ -2190,6 +2193,9 @@
       <c r="D12" s="11" t="s">
         <v>458</v>
       </c>
+      <c r="F12" s="16">
+        <v>44364</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="21">
       <c r="A13" s="12">
@@ -2204,6 +2210,9 @@
       <c r="D13" s="11" t="s">
         <v>458</v>
       </c>
+      <c r="F13" s="16">
+        <v>44364</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="21">
       <c r="A14" s="15">
@@ -2596,7 +2605,7 @@
       <c r="D41" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>463</v>
       </c>
     </row>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F387D1-31B1-4E9C-A709-9EE48C27EA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABED99B-6D0A-4157-BDA7-57DF569F4403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2227,6 +2227,9 @@
       <c r="D14" s="11" t="s">
         <v>458</v>
       </c>
+      <c r="F14" s="16">
+        <v>44364</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="21">
       <c r="A15" s="15">
@@ -3471,7 +3474,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="21">
-      <c r="A106">
+      <c r="A106" s="15">
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -3502,7 +3505,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="21">
-      <c r="A108">
+      <c r="A108" s="15">
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABED99B-6D0A-4157-BDA7-57DF569F4403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD24AC-8EF8-407C-AF58-3BC610FACA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t xml:space="preserve">Read Manachers Algo.. See downloaded Video </t>
+  </si>
+  <si>
+    <t>Moore's Voting Algo learnt</t>
   </si>
 </sst>
 </file>
@@ -2018,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3514,8 +3517,11 @@
       <c r="C108" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>4</v>
+      <c r="D108" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E108" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD24AC-8EF8-407C-AF58-3BC610FACA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD45B25-5066-4EDD-BA5C-6138D48E93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1461,7 +1461,7 @@
     <t xml:space="preserve">Read Manachers Algo.. See downloaded Video </t>
   </si>
   <si>
-    <t>Moore's Voting Algo learnt</t>
+    <t>Moore's Voting Algo learnt (17-07-21)</t>
   </si>
 </sst>
 </file>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD45B25-5066-4EDD-BA5C-6138D48E93EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492DC58-B52E-453D-98D0-695E67D6CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1462,6 +1462,9 @@
   </si>
   <si>
     <t>Moore's Voting Algo learnt (17-07-21)</t>
+  </si>
+  <si>
+    <t>Think about abt the soln next time. It's easy</t>
   </si>
 </sst>
 </file>
@@ -2021,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3525,7 +3528,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="21">
-      <c r="A109">
+      <c r="A109" s="15">
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -3534,8 +3537,11 @@
       <c r="C109" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>4</v>
+      <c r="D109" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E109" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492DC58-B52E-453D-98D0-695E67D6CBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9334275-DC53-4AB5-82AF-5E2715083151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="481">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,6 +1465,9 @@
   </si>
   <si>
     <t>Think about abt the soln next time. It's easy</t>
+  </si>
+  <si>
+    <t>Did by my own. Really Happy</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2028,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3545,7 +3548,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="21">
-      <c r="A110">
+      <c r="A110" s="12">
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -3554,8 +3557,11 @@
       <c r="C110" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>4</v>
+      <c r="D110" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E110" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9334275-DC53-4AB5-82AF-5E2715083151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9640C-7171-4B1B-8315-367E3CD7AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="57" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3565,7 +3565,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="21">
-      <c r="A111">
+      <c r="A111" s="15">
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -3574,8 +3574,8 @@
       <c r="C111" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>4</v>
+      <c r="D111" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9640C-7171-4B1B-8315-367E3CD7AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3A496-75F5-4CA6-B7C5-791B5A90B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1468,6 +1468,9 @@
   </si>
   <si>
     <t>Did by my own. Really Happy</t>
+  </si>
+  <si>
+    <t>Excellent Question</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="57" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3576,6 +3579,9 @@
       </c>
       <c r="D111" s="11" t="s">
         <v>458</v>
+      </c>
+      <c r="E111" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3A496-75F5-4CA6-B7C5-791B5A90B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A466F-7A86-4757-AA15-EEEA6436FA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A466F-7A86-4757-AA15-EEEA6436FA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F2FEE-76B8-4717-BB30-86D328A18572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="485">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
     <t>Merge 2 sorted arrays without using Extra space.</t>
   </si>
   <si>
@@ -1471,6 +1468,18 @@
   </si>
   <si>
     <t>Excellent Question</t>
+  </si>
+  <si>
+    <t>2nd Revision</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cETfFsSTGJI</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-jumps-reach-endset-2on-solution/</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array. Revised it again. Very Hard. AD-HOC</t>
   </si>
 </sst>
 </file>
@@ -2028,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2040,35 +2049,39 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="159.8984375" customWidth="1"/>
     <col min="4" max="4" width="23.296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="99.8984375" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6">
+    <row r="1" spans="1:8" ht="24.6">
       <c r="A1" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="22"/>
       <c r="C2" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="22"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="21">
+    <row r="4" spans="1:8" ht="21">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -2080,16 +2093,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="B5" s="15"/>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21">
+    <row r="6" spans="1:8" ht="21">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -2100,14 +2113,17 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G6" s="16">
         <v>44349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21">
+    <row r="7" spans="1:8" ht="21">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -2118,14 +2134,17 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G7" s="16">
         <v>44349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21">
+    <row r="8" spans="1:8" ht="21">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -2136,14 +2155,17 @@
         <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G8" s="16">
         <v>44351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21">
+    <row r="9" spans="1:8" ht="21">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -2154,14 +2176,17 @@
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G9" s="16">
         <v>44363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21">
+    <row r="10" spans="1:8" ht="21">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -2172,10 +2197,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21">
+        <v>457</v>
+      </c>
+      <c r="F10" s="16">
+        <v>45162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21">
       <c r="A11" s="12">
         <v>6</v>
       </c>
@@ -2186,13 +2214,16 @@
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F11" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G11" s="16">
         <v>44364</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21">
+    <row r="12" spans="1:8" ht="21">
       <c r="A12" s="12">
         <v>7</v>
       </c>
@@ -2203,13 +2234,16 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F12" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G12" s="16">
         <v>44364</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21">
+    <row r="13" spans="1:8" ht="21">
       <c r="A13" s="12">
         <v>8</v>
       </c>
@@ -2220,13 +2254,16 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F13" s="16">
+        <v>45162</v>
+      </c>
+      <c r="G13" s="16">
         <v>44364</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21">
+    <row r="14" spans="1:8" ht="21">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -2237,13 +2274,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="F14" s="16">
+        <v>457</v>
+      </c>
+      <c r="G14" s="16">
         <v>44364</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21">
+    <row r="15" spans="1:8" ht="21">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -2251,13 +2288,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>484</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21">
+        <v>457</v>
+      </c>
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+      <c r="H15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -2265,10 +2308,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2279,10 +2322,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2293,10 +2336,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2307,10 +2350,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2321,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2335,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2349,10 +2392,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2363,10 +2406,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2377,10 +2420,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2391,10 +2434,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2405,10 +2448,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2419,10 +2462,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2433,10 +2476,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2447,10 +2490,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2461,10 +2504,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2475,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2489,13 +2532,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21">
       <c r="A33" s="12">
         <v>28</v>
       </c>
@@ -2503,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21">
       <c r="A34" s="15">
         <v>29</v>
       </c>
@@ -2517,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21">
       <c r="A35" s="12">
         <v>30</v>
       </c>
@@ -2531,13 +2574,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21">
       <c r="A36" s="12">
         <v>31</v>
       </c>
@@ -2545,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21">
       <c r="A37" s="12">
         <v>32</v>
       </c>
@@ -2559,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21">
       <c r="A38" s="15">
         <v>33</v>
       </c>
@@ -2573,13 +2616,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21">
       <c r="A39" s="12">
         <v>34</v>
       </c>
@@ -2587,13 +2630,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21">
       <c r="A40" s="12">
         <v>35</v>
       </c>
@@ -2601,13 +2644,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21">
       <c r="A41" s="15">
         <v>36</v>
       </c>
@@ -2615,92 +2658,93 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="21">
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="21">
       <c r="C42" s="5"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:5" ht="21">
+    <row r="43" spans="1:6" ht="21">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:5" ht="21">
+    <row r="44" spans="1:6" ht="21">
       <c r="A44" s="15">
         <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21">
       <c r="A45" s="12">
         <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21">
       <c r="A46" s="15">
         <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21">
       <c r="A47" s="15">
         <v>40</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21">
       <c r="A48" s="12">
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="21">
@@ -2708,10 +2752,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>4</v>
@@ -2722,13 +2766,13 @@
         <v>43</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="21">
@@ -2736,13 +2780,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="21">
@@ -2750,13 +2794,13 @@
         <v>45</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="21">
@@ -2764,13 +2808,13 @@
         <v>46</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2786,13 +2830,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="21">
@@ -2800,13 +2844,13 @@
         <v>48</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="21">
@@ -2814,13 +2858,13 @@
         <v>49</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="21">
@@ -2828,13 +2872,13 @@
         <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="21">
@@ -2842,13 +2886,13 @@
         <v>51</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="21">
@@ -2856,13 +2900,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="21">
@@ -2870,13 +2914,13 @@
         <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="21">
@@ -2884,16 +2928,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E63" t="s">
         <v>476</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E63" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="21">
@@ -2901,13 +2945,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
@@ -2915,13 +2959,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
@@ -2929,13 +2973,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
@@ -2943,13 +2987,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
@@ -2957,10 +3001,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>4</v>
@@ -2971,13 +3015,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
@@ -2985,13 +3029,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
@@ -2999,13 +3043,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
@@ -3013,13 +3057,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
@@ -3027,13 +3071,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
@@ -3041,13 +3085,13 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
@@ -3055,13 +3099,13 @@
         <v>66</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
@@ -3069,13 +3113,13 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
@@ -3083,13 +3127,13 @@
         <v>68</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
@@ -3097,13 +3141,13 @@
         <v>69</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
@@ -3111,13 +3155,13 @@
         <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
@@ -3125,474 +3169,482 @@
         <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="21">
+    <row r="81" spans="1:6" ht="21">
       <c r="A81" s="12">
         <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="21">
       <c r="A82" s="12">
         <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21">
       <c r="A83" s="15">
         <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21">
       <c r="A84" s="12">
         <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21">
       <c r="A85" s="15">
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" s="15">
         <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21">
       <c r="A87" s="15">
         <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="21">
+    <row r="88" spans="1:6" ht="21">
       <c r="A88" s="15">
         <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E88" t="s">
         <v>474</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E88" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="21">
+    </row>
+    <row r="89" spans="1:6" ht="21">
       <c r="A89" s="15">
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21">
       <c r="A90" s="15">
         <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21">
       <c r="A91" s="15">
         <v>82</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E91" s="16"/>
-    </row>
-    <row r="92" spans="1:5" ht="21">
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="1:6" ht="21">
       <c r="A92" s="17">
         <v>83</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="21">
+        <v>466</v>
+      </c>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="93" spans="1:6" ht="21">
       <c r="A93" s="12">
         <v>84</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E93" s="16"/>
-    </row>
-    <row r="94" spans="1:5" ht="21">
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="1:6" ht="21">
       <c r="A94" s="15">
         <v>85</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E94" s="16"/>
-    </row>
-    <row r="95" spans="1:5" ht="21">
+      <c r="F94" s="16"/>
+    </row>
+    <row r="95" spans="1:6" ht="21">
       <c r="A95" s="12">
         <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E95" s="16"/>
-    </row>
-    <row r="96" spans="1:5" ht="21">
+      <c r="F95" s="16"/>
+    </row>
+    <row r="96" spans="1:6" ht="21">
       <c r="A96" s="15">
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E96" s="16"/>
-    </row>
-    <row r="97" spans="1:5" ht="21">
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="1:6" ht="21">
       <c r="A97" s="15">
         <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E97" s="16"/>
-    </row>
-    <row r="98" spans="1:5" ht="21">
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:6" ht="21">
       <c r="A98" s="18">
         <v>89</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>467</v>
+      </c>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="D99"/>
     </row>
-    <row r="100" spans="1:5" ht="21">
+    <row r="100" spans="1:6" ht="21">
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100"/>
     </row>
-    <row r="101" spans="1:5" ht="21">
+    <row r="101" spans="1:6" ht="21">
       <c r="A101" s="15">
         <v>90</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D101" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E101" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="21">
       <c r="A102" s="12">
         <v>91</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21">
       <c r="A103" s="12">
         <v>92</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E103" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="21">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="21">
       <c r="A104" s="12">
         <v>93</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21">
       <c r="A105" s="12">
         <v>94</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="21">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21">
       <c r="A106" s="15">
         <v>95</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="21">
+    <row r="107" spans="1:6" ht="21">
       <c r="A107" s="15">
         <v>96</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E107" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="21">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="21">
       <c r="A108" s="15">
         <v>97</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E108" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="21">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="21">
       <c r="A109" s="15">
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E109" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="21">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="21">
       <c r="A110" s="12">
         <v>99</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E110" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="21">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="21">
       <c r="A111" s="15">
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E111" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="21">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="21">
       <c r="A112">
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>4</v>
@@ -3603,10 +3655,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>4</v>
@@ -3617,10 +3669,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>4</v>
@@ -3631,10 +3683,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>4</v>
@@ -3645,10 +3697,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>4</v>
@@ -3659,10 +3711,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>4</v>
@@ -3673,10 +3725,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>4</v>
@@ -3687,10 +3739,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>4</v>
@@ -3701,10 +3753,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>4</v>
@@ -3715,10 +3767,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>4</v>
@@ -3729,10 +3781,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>4</v>
@@ -3743,10 +3795,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>4</v>
@@ -3757,10 +3809,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>4</v>
@@ -3771,10 +3823,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>4</v>
@@ -3785,10 +3837,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>4</v>
@@ -3799,10 +3851,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>4</v>
@@ -3813,140 +3865,140 @@
         <v>117</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="21">
+    <row r="129" spans="1:6" ht="21">
       <c r="A129">
         <v>118</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="21">
+    <row r="130" spans="1:6" ht="21">
       <c r="A130">
         <v>119</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="21">
+    <row r="131" spans="1:6" ht="21">
       <c r="A131">
         <v>120</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="21">
+    <row r="132" spans="1:6" ht="21">
       <c r="A132">
         <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="21">
+    <row r="133" spans="1:6" ht="21">
       <c r="A133">
         <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="21">
+    <row r="134" spans="1:6" ht="21">
       <c r="A134">
         <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="21">
+    <row r="135" spans="1:6" ht="21">
       <c r="A135">
         <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="21">
+    <row r="136" spans="1:6" ht="21">
       <c r="A136">
         <v>125</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="21">
+    <row r="138" spans="1:6" ht="21">
       <c r="C138" s="5"/>
       <c r="D138" s="10"/>
     </row>
-    <row r="139" spans="1:5" ht="21">
+    <row r="139" spans="1:6" ht="21">
       <c r="A139">
         <v>126</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>4</v>
@@ -3954,16 +4006,17 @@
       <c r="E139" s="16">
         <v>44326</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="21">
+      <c r="F139" s="16"/>
+    </row>
+    <row r="140" spans="1:6" ht="21">
       <c r="A140">
         <v>127</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>4</v>
@@ -3971,16 +4024,17 @@
       <c r="E140" s="16">
         <v>44326</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="21">
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" spans="1:6" ht="21">
       <c r="A141">
         <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>4</v>
@@ -3988,16 +4042,17 @@
       <c r="E141" s="16">
         <v>44327</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="21">
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="1:6" ht="21">
       <c r="A142">
         <v>129</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>4</v>
@@ -4005,30 +4060,31 @@
       <c r="E142" s="16">
         <v>44327</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="21">
+      <c r="F142" s="16"/>
+    </row>
+    <row r="143" spans="1:6" ht="21">
       <c r="A143">
         <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="21">
+    <row r="144" spans="1:6" ht="21">
       <c r="A144">
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>4</v>
@@ -4039,10 +4095,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>4</v>
@@ -4053,10 +4109,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>4</v>
@@ -4067,10 +4123,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>4</v>
@@ -4081,10 +4137,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>4</v>
@@ -4095,10 +4151,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>4</v>
@@ -4109,10 +4165,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>4</v>
@@ -4123,10 +4179,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>4</v>
@@ -4137,10 +4193,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>4</v>
@@ -4151,10 +4207,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>4</v>
@@ -4165,10 +4221,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>4</v>
@@ -4179,10 +4235,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>4</v>
@@ -4193,10 +4249,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>4</v>
@@ -4207,10 +4263,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>4</v>
@@ -4221,10 +4277,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>4</v>
@@ -4235,10 +4291,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>4</v>
@@ -4249,10 +4305,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>4</v>
@@ -4263,10 +4319,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>4</v>
@@ -4277,10 +4333,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>4</v>
@@ -4291,10 +4347,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>4</v>
@@ -4305,10 +4361,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>4</v>
@@ -4319,10 +4375,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>4</v>
@@ -4333,10 +4389,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>4</v>
@@ -4347,10 +4403,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>4</v>
@@ -4361,10 +4417,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>4</v>
@@ -4375,10 +4431,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>4</v>
@@ -4389,10 +4445,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>4</v>
@@ -4403,10 +4459,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>4</v>
@@ -4417,10 +4473,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>4</v>
@@ -4431,10 +4487,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>4</v>
@@ -4445,10 +4501,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>4</v>
@@ -4463,10 +4519,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>4</v>
@@ -4477,10 +4533,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>4</v>
@@ -4491,10 +4547,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>4</v>
@@ -4505,10 +4561,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>4</v>
@@ -4519,10 +4575,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>4</v>
@@ -4533,10 +4589,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>4</v>
@@ -4547,10 +4603,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>4</v>
@@ -4561,10 +4617,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>4</v>
@@ -4575,10 +4631,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>4</v>
@@ -4589,10 +4645,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>4</v>
@@ -4603,10 +4659,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>4</v>
@@ -4617,10 +4673,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>4</v>
@@ -4631,10 +4687,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>4</v>
@@ -4645,10 +4701,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>4</v>
@@ -4659,10 +4715,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>4</v>
@@ -4673,10 +4729,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>4</v>
@@ -4687,10 +4743,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>4</v>
@@ -4701,10 +4757,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>4</v>
@@ -4715,10 +4771,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>4</v>
@@ -4729,10 +4785,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>4</v>
@@ -4743,10 +4799,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>4</v>
@@ -4757,10 +4813,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>4</v>
@@ -4771,10 +4827,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>4</v>
@@ -4785,10 +4841,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>4</v>
@@ -4799,10 +4855,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>4</v>
@@ -4813,10 +4869,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>4</v>
@@ -4827,10 +4883,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>4</v>
@@ -4841,10 +4897,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>4</v>
@@ -4855,10 +4911,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>4</v>
@@ -4869,10 +4925,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>4</v>
@@ -4883,10 +4939,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>4</v>
@@ -4897,10 +4953,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>4</v>
@@ -4911,10 +4967,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>4</v>
@@ -4925,10 +4981,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>4</v>
@@ -4939,10 +4995,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>4</v>
@@ -4963,10 +5019,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>4</v>
@@ -4977,10 +5033,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>4</v>
@@ -4991,10 +5047,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>4</v>
@@ -5005,10 +5061,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>4</v>
@@ -5019,10 +5075,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>4</v>
@@ -5033,10 +5089,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>4</v>
@@ -5047,10 +5103,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>4</v>
@@ -5061,10 +5117,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>4</v>
@@ -5075,10 +5131,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>4</v>
@@ -5089,10 +5145,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>4</v>
@@ -5103,10 +5159,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>4</v>
@@ -5117,10 +5173,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>4</v>
@@ -5131,10 +5187,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>4</v>
@@ -5145,10 +5201,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>4</v>
@@ -5159,10 +5215,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>4</v>
@@ -5173,10 +5229,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>4</v>
@@ -5187,10 +5243,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>4</v>
@@ -5201,10 +5257,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>4</v>
@@ -5215,10 +5271,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>4</v>
@@ -5229,10 +5285,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>4</v>
@@ -5243,10 +5299,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>4</v>
@@ -5257,10 +5313,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>4</v>
@@ -5279,10 +5335,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>4</v>
@@ -5293,10 +5349,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>4</v>
@@ -5307,10 +5363,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>4</v>
@@ -5321,10 +5377,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>4</v>
@@ -5335,10 +5391,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>4</v>
@@ -5349,10 +5405,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>4</v>
@@ -5363,10 +5419,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>4</v>
@@ -5377,10 +5433,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>4</v>
@@ -5391,10 +5447,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>4</v>
@@ -5405,10 +5461,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>4</v>
@@ -5419,10 +5475,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>4</v>
@@ -5433,10 +5489,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>4</v>
@@ -5447,10 +5503,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>4</v>
@@ -5461,10 +5517,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>4</v>
@@ -5475,10 +5531,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>4</v>
@@ -5489,10 +5545,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>4</v>
@@ -5503,10 +5559,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>4</v>
@@ -5517,10 +5573,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>4</v>
@@ -5531,10 +5587,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>4</v>
@@ -5545,10 +5601,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>4</v>
@@ -5559,10 +5615,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>4</v>
@@ -5573,10 +5629,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>4</v>
@@ -5587,10 +5643,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>4</v>
@@ -5601,10 +5657,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>4</v>
@@ -5615,10 +5671,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>4</v>
@@ -5629,10 +5685,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>4</v>
@@ -5643,10 +5699,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>4</v>
@@ -5657,10 +5713,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>4</v>
@@ -5671,10 +5727,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>4</v>
@@ -5685,10 +5741,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>4</v>
@@ -5699,10 +5755,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>4</v>
@@ -5713,10 +5769,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>4</v>
@@ -5727,10 +5783,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>4</v>
@@ -5741,10 +5797,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>4</v>
@@ -5755,10 +5811,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>4</v>
@@ -5777,10 +5833,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>4</v>
@@ -5791,10 +5847,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>4</v>
@@ -5805,10 +5861,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>4</v>
@@ -5819,10 +5875,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>4</v>
@@ -5833,10 +5889,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>4</v>
@@ -5847,10 +5903,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>4</v>
@@ -5861,10 +5917,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>4</v>
@@ -5875,10 +5931,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>4</v>
@@ -5889,10 +5945,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>4</v>
@@ -5903,10 +5959,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>4</v>
@@ -5917,10 +5973,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>4</v>
@@ -5931,10 +5987,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>4</v>
@@ -5945,10 +6001,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>4</v>
@@ -5959,10 +6015,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>4</v>
@@ -5973,10 +6029,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>4</v>
@@ -5987,10 +6043,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>4</v>
@@ -6001,10 +6057,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>4</v>
@@ -6015,10 +6071,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>4</v>
@@ -6029,10 +6085,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>4</v>
@@ -6051,10 +6107,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>4</v>
@@ -6065,10 +6121,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>4</v>
@@ -6079,10 +6135,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>4</v>
@@ -6093,10 +6149,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>4</v>
@@ -6107,10 +6163,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>4</v>
@@ -6121,10 +6177,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>4</v>
@@ -6135,10 +6191,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>4</v>
@@ -6149,10 +6205,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>4</v>
@@ -6163,10 +6219,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>4</v>
@@ -6177,10 +6233,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>4</v>
@@ -6191,10 +6247,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>4</v>
@@ -6205,10 +6261,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>4</v>
@@ -6219,10 +6275,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>4</v>
@@ -6233,10 +6289,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>4</v>
@@ -6247,10 +6303,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>4</v>
@@ -6261,10 +6317,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>4</v>
@@ -6275,10 +6331,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>4</v>
@@ -6289,10 +6345,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>4</v>
@@ -6303,10 +6359,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>4</v>
@@ -6317,10 +6373,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>4</v>
@@ -6331,10 +6387,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>4</v>
@@ -6345,10 +6401,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>4</v>
@@ -6359,10 +6415,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>4</v>
@@ -6373,10 +6429,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>4</v>
@@ -6387,10 +6443,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>4</v>
@@ -6401,10 +6457,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>4</v>
@@ -6415,10 +6471,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>4</v>
@@ -6429,10 +6485,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>4</v>
@@ -6443,10 +6499,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>4</v>
@@ -6457,10 +6513,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D325" s="10" t="s">
         <v>4</v>
@@ -6471,10 +6527,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D326" s="10" t="s">
         <v>4</v>
@@ -6485,10 +6541,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>4</v>
@@ -6499,10 +6555,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D328" s="10" t="s">
         <v>4</v>
@@ -6513,10 +6569,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D329" s="10" t="s">
         <v>4</v>
@@ -6527,10 +6583,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>4</v>
@@ -6541,10 +6597,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D331" s="10" t="s">
         <v>4</v>
@@ -6555,10 +6611,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>4</v>
@@ -6569,10 +6625,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>4</v>
@@ -6591,10 +6647,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>4</v>
@@ -6605,10 +6661,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D337" s="10" t="s">
         <v>4</v>
@@ -6619,10 +6675,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D338" s="10" t="s">
         <v>4</v>
@@ -6633,10 +6689,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>4</v>
@@ -6647,10 +6703,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D340" s="10" t="s">
         <v>4</v>
@@ -6661,10 +6717,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D341" s="10" t="s">
         <v>4</v>
@@ -6675,10 +6731,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D342" s="10" t="s">
         <v>4</v>
@@ -6689,10 +6745,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D343" s="10" t="s">
         <v>4</v>
@@ -6703,10 +6759,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D344" s="10" t="s">
         <v>4</v>
@@ -6717,10 +6773,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>4</v>
@@ -6731,10 +6787,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D346" s="10" t="s">
         <v>4</v>
@@ -6745,10 +6801,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D347" s="10" t="s">
         <v>4</v>
@@ -6759,10 +6815,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D348" s="10" t="s">
         <v>4</v>
@@ -6773,10 +6829,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D349" s="10" t="s">
         <v>4</v>
@@ -6787,10 +6843,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D350" s="10" t="s">
         <v>4</v>
@@ -6801,10 +6857,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>4</v>
@@ -6815,10 +6871,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D352" s="10" t="s">
         <v>4</v>
@@ -6829,10 +6885,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D353" s="10" t="s">
         <v>4</v>
@@ -6851,10 +6907,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C356" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D356" s="10" t="s">
         <v>4</v>
@@ -6865,10 +6921,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>4</v>
@@ -6879,10 +6935,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D358" s="10" t="s">
         <v>4</v>
@@ -6893,10 +6949,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D359" s="10" t="s">
         <v>4</v>
@@ -6907,10 +6963,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D360" s="10" t="s">
         <v>4</v>
@@ -6921,10 +6977,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D361" s="10" t="s">
         <v>4</v>
@@ -6935,10 +6991,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>4</v>
@@ -6949,10 +7005,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>4</v>
@@ -6963,10 +7019,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D364" s="10" t="s">
         <v>4</v>
@@ -6977,10 +7033,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>4</v>
@@ -6991,10 +7047,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>4</v>
@@ -7005,10 +7061,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>4</v>
@@ -7019,10 +7075,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>4</v>
@@ -7033,10 +7089,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>4</v>
@@ -7047,10 +7103,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>4</v>
@@ -7061,10 +7117,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>4</v>
@@ -7075,10 +7131,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>4</v>
@@ -7089,10 +7145,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>4</v>
@@ -7103,10 +7159,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>4</v>
@@ -7117,10 +7173,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>4</v>
@@ -7131,10 +7187,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D376" s="10" t="s">
         <v>4</v>
@@ -7145,10 +7201,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D377" s="10" t="s">
         <v>4</v>
@@ -7159,10 +7215,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D378" s="10" t="s">
         <v>4</v>
@@ -7173,10 +7229,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D379" s="10" t="s">
         <v>4</v>
@@ -7187,10 +7243,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D380" s="10" t="s">
         <v>4</v>
@@ -7201,10 +7257,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D381" s="10" t="s">
         <v>4</v>
@@ -7215,10 +7271,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D382" s="10" t="s">
         <v>4</v>
@@ -7229,10 +7285,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D383" s="10" t="s">
         <v>4</v>
@@ -7243,10 +7299,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D384" s="10" t="s">
         <v>4</v>
@@ -7257,10 +7313,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D385" s="10" t="s">
         <v>4</v>
@@ -7271,10 +7327,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D386" s="10" t="s">
         <v>4</v>
@@ -7285,10 +7341,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D387" s="10" t="s">
         <v>4</v>
@@ -7299,10 +7355,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D388" s="10" t="s">
         <v>4</v>
@@ -7313,10 +7369,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D389" s="10" t="s">
         <v>4</v>
@@ -7327,10 +7383,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>4</v>
@@ -7341,10 +7397,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D391" s="10" t="s">
         <v>4</v>
@@ -7355,10 +7411,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D392" s="10" t="s">
         <v>4</v>
@@ -7369,10 +7425,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>4</v>
@@ -7383,10 +7439,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D394" s="10" t="s">
         <v>4</v>
@@ -7397,10 +7453,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>4</v>
@@ -7411,10 +7467,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>4</v>
@@ -7425,10 +7481,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D397" s="10" t="s">
         <v>4</v>
@@ -7439,10 +7495,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D398" s="10" t="s">
         <v>4</v>
@@ -7453,10 +7509,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>4</v>
@@ -7475,10 +7531,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>4</v>
@@ -7489,10 +7545,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>4</v>
@@ -7503,10 +7559,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>4</v>
@@ -7517,10 +7573,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>4</v>
@@ -7531,10 +7587,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>4</v>
@@ -7545,10 +7601,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>4</v>
@@ -7567,10 +7623,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>4</v>
@@ -7581,10 +7637,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>4</v>
@@ -7595,10 +7651,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>4</v>
@@ -7609,10 +7665,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>4</v>
@@ -7623,10 +7679,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>4</v>
@@ -7637,10 +7693,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D415" s="10" t="s">
         <v>4</v>
@@ -7651,10 +7707,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>4</v>
@@ -7665,10 +7721,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>4</v>
@@ -7679,10 +7735,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>4</v>
@@ -7693,10 +7749,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>4</v>
@@ -7707,10 +7763,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>4</v>
@@ -7721,10 +7777,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>4</v>
@@ -7735,10 +7791,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>4</v>
@@ -7749,10 +7805,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>4</v>
@@ -7763,10 +7819,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>4</v>
@@ -7777,10 +7833,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>4</v>
@@ -7791,10 +7847,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>4</v>
@@ -7805,10 +7861,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>4</v>
@@ -7819,10 +7875,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>4</v>
@@ -7833,10 +7889,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>4</v>
@@ -7847,10 +7903,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>4</v>
@@ -7861,10 +7917,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>4</v>
@@ -7875,10 +7931,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>4</v>
@@ -7889,10 +7945,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>4</v>
@@ -7903,10 +7959,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>4</v>
@@ -7917,10 +7973,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>4</v>
@@ -7931,10 +7987,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>4</v>
@@ -7945,10 +8001,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>4</v>
@@ -7959,10 +8015,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>4</v>
@@ -7973,10 +8029,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>4</v>
@@ -7987,10 +8043,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>4</v>
@@ -8001,10 +8057,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>4</v>
@@ -8015,10 +8071,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>4</v>
@@ -8029,10 +8085,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>4</v>
@@ -8043,10 +8099,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>4</v>
@@ -8057,10 +8113,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>4</v>
@@ -8071,10 +8127,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>4</v>
@@ -8085,10 +8141,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>4</v>
@@ -8099,10 +8155,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>4</v>
@@ -8113,10 +8169,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>4</v>
@@ -8127,10 +8183,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>4</v>
@@ -8141,10 +8197,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>4</v>
@@ -8155,10 +8211,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>4</v>
@@ -8169,10 +8225,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>4</v>
@@ -8183,10 +8239,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>4</v>
@@ -8197,10 +8253,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>4</v>
@@ -8211,10 +8267,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>4</v>
@@ -8225,10 +8281,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>4</v>
@@ -8239,10 +8295,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>4</v>
@@ -8253,10 +8309,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>4</v>
@@ -8267,10 +8323,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>4</v>
@@ -8281,10 +8337,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>4</v>
@@ -8295,10 +8351,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>4</v>
@@ -8309,10 +8365,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>4</v>
@@ -8323,10 +8379,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>4</v>
@@ -8337,10 +8393,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>4</v>
@@ -8351,10 +8407,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>4</v>
@@ -8365,10 +8421,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D467" s="10" t="s">
         <v>4</v>
@@ -8379,10 +8435,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>4</v>
@@ -8393,10 +8449,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>4</v>
@@ -8416,10 +8472,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C472" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>4</v>
@@ -8430,10 +8486,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>4</v>
@@ -8444,10 +8500,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>4</v>
@@ -8458,10 +8514,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>4</v>
@@ -8472,10 +8528,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>4</v>
@@ -8486,10 +8542,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>4</v>
@@ -8500,10 +8556,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>4</v>
@@ -8514,10 +8570,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>4</v>
@@ -8528,10 +8584,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>4</v>
@@ -8542,10 +8598,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>4</v>
@@ -8565,7 +8621,7 @@
     <hyperlink ref="C12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
     <hyperlink ref="C13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
     <hyperlink ref="C14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="C15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
     <hyperlink ref="C16" r:id="rId11" display="find duplicate in an array of N+1 Integers" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
     <hyperlink ref="C17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
     <hyperlink ref="C18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F2FEE-76B8-4717-BB30-86D328A18572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6444F7A5-34F3-4DF9-8861-1DAA4048F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2276,6 +2276,9 @@
       <c r="D14" s="11" t="s">
         <v>457</v>
       </c>
+      <c r="F14" s="16">
+        <v>45164</v>
+      </c>
       <c r="G14" s="16">
         <v>44364</v>
       </c>
@@ -2296,6 +2299,9 @@
       <c r="E15" t="s">
         <v>482</v>
       </c>
+      <c r="F15" s="16">
+        <v>45164</v>
+      </c>
       <c r="H15" t="s">
         <v>483</v>
       </c>
@@ -2312,6 +2318,9 @@
       </c>
       <c r="D16" s="11" t="s">
         <v>457</v>
+      </c>
+      <c r="F16" s="16">
+        <v>45164</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">

--- a/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
+++ b/450 Questions for DSA/FINAL450 Qs for DS ALGo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Python Learning Plus\PROGRAMS\Coding Ninjas DS Algo\450 Questions for DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6444F7A5-34F3-4DF9-8861-1DAA4048F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B77D6E-4378-4D70-9B65-AAF81C3CA503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2323,7 +2323,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:6" ht="21">
       <c r="A17" s="15">
         <v>12</v>
       </c>
@@ -2336,8 +2336,11 @@
       <c r="D17" s="11" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="21">
+      <c r="F17" s="16">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21">
       <c r="A18" s="12">
         <v>13</v>
       </c>
@@ -2350,8 +2353,11 @@
       <c r="D18" s="11" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="21">
+      <c r="F18" s="16">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21">
       <c r="A19" s="12">
         <v>14</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21">
+    <row r="20" spans="1:6" ht="21">
       <c r="A20" s="15">
         <v>15</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:6" ht="21">
       <c r="A21" s="15">
         <v>16</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:6" ht="21">
       <c r="A22" s="12">
         <v>17</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="12">
         <v>18</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21">
+    <row r="24" spans="1:6" ht="21">
       <c r="A24" s="12">
         <v>19</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21">
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="12">
         <v>20</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21">
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="12">
         <v>21</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" s="12">
         <v>22</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="15">
         <v>23</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21">
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" s="12">
         <v>24</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:6" ht="21">
       <c r="A30" s="15">
         <v>25</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21">
+    <row r="31" spans="1:6" ht="21">
       <c r="A31" s="15">
         <v>26</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21">
+    <row r="32" spans="1:6" ht="21">
       <c r="A32" s="12">
         <v>27</v>
       </c>
